--- a/Proyectos/2016/Métricas y monitoreo/Concentrado_métricas_2016.xlsx
+++ b/Proyectos/2016/Métricas y monitoreo/Concentrado_métricas_2016.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Desviacion de esfuerzo" sheetId="1" state="visible" r:id="rId2"/>
@@ -266,7 +266,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,6 +277,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3333"/>
+        <bgColor rgb="FFC0504D"/>
       </patternFill>
     </fill>
     <fill>
@@ -473,7 +479,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -482,35 +488,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="5" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -518,7 +528,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -526,11 +536,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -538,43 +548,43 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="6" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="6" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="7" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="7" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="5" borderId="7" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="7" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -582,15 +592,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -598,7 +608,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -618,7 +628,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -626,27 +636,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="4" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="4" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="5" fillId="5" borderId="4" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="5" fillId="6" borderId="4" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -654,19 +664,19 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="1" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="5" fillId="5" borderId="6" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="5" fillId="6" borderId="6" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="172" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="5" fillId="5" borderId="12" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="5" fillId="6" borderId="12" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -678,27 +688,27 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="5" fillId="5" borderId="13" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="5" fillId="6" borderId="13" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="173" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="5" fillId="5" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="5" fillId="6" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="173" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -753,7 +763,7 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFFF3333"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -991,11 +1001,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="95465028"/>
-        <c:axId val="74207682"/>
+        <c:axId val="44104298"/>
+        <c:axId val="31132499"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="95465028"/>
+        <c:axId val="44104298"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1012,14 +1022,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="74207682"/>
+        <c:crossAx val="31132499"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74207682"/>
+        <c:axId val="31132499"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1046,7 +1056,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="95465028"/>
+        <c:crossAx val="44104298"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1176,11 +1186,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="10346271"/>
-        <c:axId val="69565944"/>
+        <c:axId val="30719600"/>
+        <c:axId val="77130206"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="10346271"/>
+        <c:axId val="30719600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1197,14 +1207,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="69565944"/>
+        <c:crossAx val="77130206"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69565944"/>
+        <c:axId val="77130206"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1231,7 +1241,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="10346271"/>
+        <c:crossAx val="30719600"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1445,11 +1455,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="43867507"/>
-        <c:axId val="83896129"/>
+        <c:axId val="18501650"/>
+        <c:axId val="7210464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="43867507"/>
+        <c:axId val="18501650"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1466,14 +1476,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="83896129"/>
+        <c:crossAx val="7210464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83896129"/>
+        <c:axId val="7210464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1500,7 +1510,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="43867507"/>
+        <c:crossAx val="18501650"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1630,11 +1640,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="63429447"/>
-        <c:axId val="12069137"/>
+        <c:axId val="16206335"/>
+        <c:axId val="81413228"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63429447"/>
+        <c:axId val="16206335"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1651,14 +1661,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="12069137"/>
+        <c:crossAx val="81413228"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="12069137"/>
+        <c:axId val="81413228"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1685,7 +1695,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="63429447"/>
+        <c:crossAx val="16206335"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1899,11 +1909,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="37319325"/>
-        <c:axId val="30028872"/>
+        <c:axId val="95502807"/>
+        <c:axId val="49296589"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="37319325"/>
+        <c:axId val="95502807"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1920,14 +1930,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="30028872"/>
+        <c:crossAx val="49296589"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="30028872"/>
+        <c:axId val="49296589"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1954,7 +1964,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="37319325"/>
+        <c:crossAx val="95502807"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2084,11 +2094,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="40668090"/>
-        <c:axId val="42229949"/>
+        <c:axId val="69390561"/>
+        <c:axId val="3248944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="40668090"/>
+        <c:axId val="69390561"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2105,14 +2115,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="42229949"/>
+        <c:crossAx val="3248944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42229949"/>
+        <c:axId val="3248944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2139,7 +2149,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="40668090"/>
+        <c:crossAx val="69390561"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2353,11 +2363,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="21109254"/>
-        <c:axId val="86823981"/>
+        <c:axId val="20947109"/>
+        <c:axId val="39599238"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="21109254"/>
+        <c:axId val="20947109"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2374,14 +2384,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="86823981"/>
+        <c:crossAx val="39599238"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86823981"/>
+        <c:axId val="39599238"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2408,7 +2418,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="21109254"/>
+        <c:crossAx val="20947109"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2538,11 +2548,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="34746271"/>
-        <c:axId val="51459554"/>
+        <c:axId val="9260439"/>
+        <c:axId val="10085433"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="34746271"/>
+        <c:axId val="9260439"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2559,14 +2569,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="51459554"/>
+        <c:crossAx val="10085433"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51459554"/>
+        <c:axId val="10085433"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2593,7 +2603,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="34746271"/>
+        <c:crossAx val="9260439"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2807,11 +2817,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="4952464"/>
-        <c:axId val="70351791"/>
+        <c:axId val="1623409"/>
+        <c:axId val="60725295"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="4952464"/>
+        <c:axId val="1623409"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2828,14 +2838,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="70351791"/>
+        <c:crossAx val="60725295"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70351791"/>
+        <c:axId val="60725295"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2862,7 +2872,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="4952464"/>
+        <c:crossAx val="1623409"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2992,11 +3002,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="67460138"/>
-        <c:axId val="75857972"/>
+        <c:axId val="23801816"/>
+        <c:axId val="82783697"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67460138"/>
+        <c:axId val="23801816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3013,14 +3023,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="75857972"/>
+        <c:crossAx val="82783697"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75857972"/>
+        <c:axId val="82783697"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3047,7 +3057,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="67460138"/>
+        <c:crossAx val="23801816"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -3261,11 +3271,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="13317640"/>
-        <c:axId val="37672970"/>
+        <c:axId val="64045774"/>
+        <c:axId val="58397301"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="13317640"/>
+        <c:axId val="64045774"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3282,14 +3292,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="37672970"/>
+        <c:crossAx val="58397301"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37672970"/>
+        <c:axId val="58397301"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3316,7 +3326,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="13317640"/>
+        <c:crossAx val="64045774"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -3446,11 +3456,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="14116637"/>
-        <c:axId val="49188471"/>
+        <c:axId val="33780195"/>
+        <c:axId val="6292282"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="14116637"/>
+        <c:axId val="33780195"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3467,14 +3477,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="49188471"/>
+        <c:crossAx val="6292282"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49188471"/>
+        <c:axId val="6292282"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3501,7 +3511,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="14116637"/>
+        <c:crossAx val="33780195"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -3631,11 +3641,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="18484612"/>
-        <c:axId val="30988152"/>
+        <c:axId val="91645224"/>
+        <c:axId val="28702011"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="18484612"/>
+        <c:axId val="91645224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3652,14 +3662,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="30988152"/>
+        <c:crossAx val="28702011"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="30988152"/>
+        <c:axId val="28702011"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3686,7 +3696,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="18484612"/>
+        <c:crossAx val="91645224"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -3900,11 +3910,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="97800425"/>
-        <c:axId val="39715861"/>
+        <c:axId val="52389362"/>
+        <c:axId val="56739602"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97800425"/>
+        <c:axId val="52389362"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3921,14 +3931,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="39715861"/>
+        <c:crossAx val="56739602"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39715861"/>
+        <c:axId val="56739602"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3955,7 +3965,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="97800425"/>
+        <c:crossAx val="52389362"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -4085,11 +4095,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="94588310"/>
-        <c:axId val="77056508"/>
+        <c:axId val="89392738"/>
+        <c:axId val="82457359"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="94588310"/>
+        <c:axId val="89392738"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4106,14 +4116,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="77056508"/>
+        <c:crossAx val="82457359"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77056508"/>
+        <c:axId val="82457359"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4140,7 +4150,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="94588310"/>
+        <c:crossAx val="89392738"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -4354,11 +4364,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="39424691"/>
-        <c:axId val="19016105"/>
+        <c:axId val="9080618"/>
+        <c:axId val="62676896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="39424691"/>
+        <c:axId val="9080618"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4375,14 +4385,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="19016105"/>
+        <c:crossAx val="62676896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="19016105"/>
+        <c:axId val="62676896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4409,7 +4419,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="39424691"/>
+        <c:crossAx val="9080618"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -4539,11 +4549,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="52591178"/>
-        <c:axId val="94300925"/>
+        <c:axId val="80858331"/>
+        <c:axId val="90328820"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52591178"/>
+        <c:axId val="80858331"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4560,14 +4570,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="94300925"/>
+        <c:crossAx val="90328820"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94300925"/>
+        <c:axId val="90328820"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4594,7 +4604,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="52591178"/>
+        <c:crossAx val="80858331"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -4808,11 +4818,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="66483750"/>
-        <c:axId val="37967641"/>
+        <c:axId val="54543504"/>
+        <c:axId val="54756958"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="66483750"/>
+        <c:axId val="54543504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4829,14 +4839,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="37967641"/>
+        <c:crossAx val="54756958"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37967641"/>
+        <c:axId val="54756958"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4863,7 +4873,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="66483750"/>
+        <c:crossAx val="54543504"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -4993,11 +5003,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="40859572"/>
-        <c:axId val="21963973"/>
+        <c:axId val="32154401"/>
+        <c:axId val="41689867"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="40859572"/>
+        <c:axId val="32154401"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5014,14 +5024,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="21963973"/>
+        <c:crossAx val="41689867"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="21963973"/>
+        <c:axId val="41689867"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5048,7 +5058,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="40859572"/>
+        <c:crossAx val="32154401"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -5170,11 +5180,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="57519982"/>
-        <c:axId val="50511879"/>
+        <c:axId val="79005333"/>
+        <c:axId val="13644624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="57519982"/>
+        <c:axId val="79005333"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5190,14 +5200,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="50511879"/>
+        <c:crossAx val="13644624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50511879"/>
+        <c:axId val="13644624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5222,7 +5232,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="57519982"/>
+        <c:crossAx val="79005333"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -5323,11 +5333,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="64838756"/>
-        <c:axId val="33103106"/>
+        <c:axId val="37122446"/>
+        <c:axId val="74806697"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64838756"/>
+        <c:axId val="37122446"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5343,14 +5353,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="33103106"/>
+        <c:crossAx val="74806697"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="33103106"/>
+        <c:axId val="74806697"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5375,7 +5385,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="64838756"/>
+        <c:crossAx val="37122446"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -5521,11 +5531,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="83877239"/>
-        <c:axId val="36591195"/>
+        <c:axId val="86466190"/>
+        <c:axId val="51327776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="83877239"/>
+        <c:axId val="86466190"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5541,14 +5551,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="36591195"/>
+        <c:crossAx val="51327776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="36591195"/>
+        <c:axId val="51327776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5573,7 +5583,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="83877239"/>
+        <c:crossAx val="86466190"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -5787,11 +5797,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="6263980"/>
-        <c:axId val="98337901"/>
+        <c:axId val="11843294"/>
+        <c:axId val="31009194"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="6263980"/>
+        <c:axId val="11843294"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5808,14 +5818,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="98337901"/>
+        <c:crossAx val="31009194"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98337901"/>
+        <c:axId val="31009194"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5842,7 +5852,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="6263980"/>
+        <c:crossAx val="11843294"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -5943,11 +5953,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="92512649"/>
-        <c:axId val="4409406"/>
+        <c:axId val="52574690"/>
+        <c:axId val="39794960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92512649"/>
+        <c:axId val="52574690"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5963,14 +5973,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="4409406"/>
+        <c:crossAx val="39794960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="4409406"/>
+        <c:axId val="39794960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5995,7 +6005,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="92512649"/>
+        <c:crossAx val="52574690"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -6096,11 +6106,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="84338744"/>
-        <c:axId val="80061118"/>
+        <c:axId val="72060742"/>
+        <c:axId val="16824267"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84338744"/>
+        <c:axId val="72060742"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6116,14 +6126,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="80061118"/>
+        <c:crossAx val="16824267"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80061118"/>
+        <c:axId val="16824267"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6148,7 +6158,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="84338744"/>
+        <c:crossAx val="72060742"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -6249,11 +6259,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="44182779"/>
-        <c:axId val="86460318"/>
+        <c:axId val="22661472"/>
+        <c:axId val="28759936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="44182779"/>
+        <c:axId val="22661472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6269,14 +6279,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="86460318"/>
+        <c:crossAx val="28759936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86460318"/>
+        <c:axId val="28759936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6301,7 +6311,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="44182779"/>
+        <c:crossAx val="22661472"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -6390,11 +6400,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="50680540"/>
-        <c:axId val="40967669"/>
+        <c:axId val="42307933"/>
+        <c:axId val="86868013"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="50680540"/>
+        <c:axId val="42307933"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6410,14 +6420,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="40967669"/>
+        <c:crossAx val="86868013"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40967669"/>
+        <c:axId val="86868013"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6442,7 +6452,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="50680540"/>
+        <c:crossAx val="42307933"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -6572,11 +6582,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="74267870"/>
-        <c:axId val="61541082"/>
+        <c:axId val="37033948"/>
+        <c:axId val="33381051"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="74267870"/>
+        <c:axId val="37033948"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6593,14 +6603,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="61541082"/>
+        <c:crossAx val="33381051"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61541082"/>
+        <c:axId val="33381051"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6627,7 +6637,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="74267870"/>
+        <c:crossAx val="37033948"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -6841,11 +6851,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="93679381"/>
-        <c:axId val="80890184"/>
+        <c:axId val="32286818"/>
+        <c:axId val="15361455"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93679381"/>
+        <c:axId val="32286818"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6862,14 +6872,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="80890184"/>
+        <c:crossAx val="15361455"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80890184"/>
+        <c:axId val="15361455"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6896,7 +6906,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="93679381"/>
+        <c:crossAx val="32286818"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -7026,11 +7036,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="54062149"/>
-        <c:axId val="53029826"/>
+        <c:axId val="64685137"/>
+        <c:axId val="94091479"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="54062149"/>
+        <c:axId val="64685137"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7047,14 +7057,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="53029826"/>
+        <c:crossAx val="94091479"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53029826"/>
+        <c:axId val="94091479"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7081,7 +7091,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="54062149"/>
+        <c:crossAx val="64685137"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -7295,11 +7305,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="9578004"/>
-        <c:axId val="55485550"/>
+        <c:axId val="39179400"/>
+        <c:axId val="94967988"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="9578004"/>
+        <c:axId val="39179400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7316,14 +7326,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="55485550"/>
+        <c:crossAx val="94967988"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55485550"/>
+        <c:axId val="94967988"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7350,7 +7360,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="9578004"/>
+        <c:crossAx val="39179400"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -7480,11 +7490,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="42541768"/>
-        <c:axId val="70141005"/>
+        <c:axId val="47882870"/>
+        <c:axId val="76896723"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="42541768"/>
+        <c:axId val="47882870"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7501,14 +7511,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="70141005"/>
+        <c:crossAx val="76896723"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70141005"/>
+        <c:axId val="76896723"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7535,7 +7545,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="42541768"/>
+        <c:crossAx val="47882870"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -7749,11 +7759,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="92182221"/>
-        <c:axId val="52293923"/>
+        <c:axId val="28286477"/>
+        <c:axId val="32886147"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92182221"/>
+        <c:axId val="28286477"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7770,14 +7780,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="52293923"/>
+        <c:crossAx val="32886147"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52293923"/>
+        <c:axId val="32886147"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7804,7 +7814,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="92182221"/>
+        <c:crossAx val="28286477"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -7844,15 +7854,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>282240</xdr:colOff>
+      <xdr:colOff>309240</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>184680</xdr:rowOff>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>122760</xdr:colOff>
+      <xdr:colOff>149400</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>174600</xdr:rowOff>
+      <xdr:rowOff>180360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7860,8 +7870,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6569280" y="184680"/>
-        <a:ext cx="5720400" cy="1942200"/>
+        <a:off x="6596280" y="175680"/>
+        <a:ext cx="5720040" cy="1941840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7874,15 +7884,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>303480</xdr:colOff>
+      <xdr:colOff>330480</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>25920</xdr:rowOff>
+      <xdr:rowOff>16920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>704160</xdr:colOff>
+      <xdr:colOff>730800</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>153360</xdr:rowOff>
+      <xdr:rowOff>159120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7890,8 +7900,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12470400" y="25920"/>
-        <a:ext cx="5671440" cy="2079720"/>
+        <a:off x="12497400" y="16920"/>
+        <a:ext cx="5671080" cy="2079360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7904,15 +7914,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>324360</xdr:colOff>
+      <xdr:colOff>351360</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>36720</xdr:rowOff>
+      <xdr:rowOff>42840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>313200</xdr:colOff>
+      <xdr:colOff>339840</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>25920</xdr:rowOff>
+      <xdr:rowOff>47160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7920,8 +7930,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6611400" y="2751120"/>
-        <a:ext cx="5868720" cy="2161080"/>
+        <a:off x="6638400" y="2742120"/>
+        <a:ext cx="5868360" cy="2160720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7934,15 +7944,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>589320</xdr:colOff>
+      <xdr:colOff>616320</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>142560</xdr:rowOff>
+      <xdr:rowOff>148680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>101520</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>184680</xdr:rowOff>
+      <xdr:colOff>128160</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>15120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7950,8 +7960,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12756240" y="2856960"/>
-        <a:ext cx="5811480" cy="2023200"/>
+        <a:off x="12783240" y="2847960"/>
+        <a:ext cx="5811120" cy="2022840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7964,15 +7974,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>313920</xdr:colOff>
+      <xdr:colOff>340920</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>15480</xdr:rowOff>
+      <xdr:rowOff>37080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>91080</xdr:colOff>
+      <xdr:colOff>117720</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>37080</xdr:rowOff>
+      <xdr:rowOff>73440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7980,8 +7990,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6600960" y="5092200"/>
-        <a:ext cx="5657040" cy="2002680"/>
+        <a:off x="6627960" y="5083200"/>
+        <a:ext cx="5656680" cy="2002320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7994,15 +8004,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>324720</xdr:colOff>
+      <xdr:colOff>351720</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>163440</xdr:rowOff>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>640800</xdr:colOff>
+      <xdr:colOff>667440</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>78120</xdr:rowOff>
+      <xdr:rowOff>114480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8010,8 +8020,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12491640" y="5049720"/>
-        <a:ext cx="5586840" cy="2086200"/>
+        <a:off x="12518640" y="5040720"/>
+        <a:ext cx="5586480" cy="2085840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8024,15 +8034,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>197280</xdr:colOff>
+      <xdr:colOff>224280</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>57960</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>122400</xdr:colOff>
+      <xdr:colOff>149040</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>56520</xdr:rowOff>
+      <xdr:rowOff>108000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8040,8 +8050,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6484320" y="7496640"/>
-        <a:ext cx="5805000" cy="2170440"/>
+        <a:off x="6511320" y="7487640"/>
+        <a:ext cx="5804640" cy="2170080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8054,15 +8064,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>473040</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>174600</xdr:rowOff>
+      <xdr:colOff>500040</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>20880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>154440</xdr:colOff>
+      <xdr:colOff>181080</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>68040</xdr:rowOff>
+      <xdr:rowOff>119520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8070,8 +8080,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12639960" y="7422840"/>
-        <a:ext cx="5980680" cy="2255760"/>
+        <a:off x="12666960" y="7413840"/>
+        <a:ext cx="5980320" cy="2255400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8084,15 +8094,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>261000</xdr:colOff>
+      <xdr:colOff>288000</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>110880</xdr:rowOff>
+      <xdr:rowOff>162720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>249840</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>173880</xdr:rowOff>
+      <xdr:colOff>276480</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>34920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8100,8 +8110,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6548040" y="10102320"/>
-        <a:ext cx="5868720" cy="2234880"/>
+        <a:off x="6575040" y="10093320"/>
+        <a:ext cx="5868360" cy="2234520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8114,15 +8124,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>473040</xdr:colOff>
+      <xdr:colOff>500040</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>89640</xdr:rowOff>
+      <xdr:rowOff>141480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>207360</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>173880</xdr:rowOff>
+      <xdr:colOff>234000</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>34920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8130,8 +8140,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12639960" y="10081080"/>
-        <a:ext cx="6033600" cy="2256120"/>
+        <a:off x="12666960" y="10072080"/>
+        <a:ext cx="6033240" cy="2255760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8144,15 +8154,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>282240</xdr:colOff>
+      <xdr:colOff>309240</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>79200</xdr:rowOff>
+      <xdr:rowOff>131040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>260280</xdr:colOff>
+      <xdr:colOff>286920</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>4680</xdr:rowOff>
+      <xdr:rowOff>71640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8160,8 +8170,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6569280" y="13004280"/>
-        <a:ext cx="5857920" cy="2097360"/>
+        <a:off x="6596280" y="12995280"/>
+        <a:ext cx="5857560" cy="2097000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8174,15 +8184,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>547200</xdr:colOff>
+      <xdr:colOff>574200</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>89640</xdr:rowOff>
+      <xdr:rowOff>141480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>218160</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>152640</xdr:rowOff>
+      <xdr:colOff>244800</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>29160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8190,8 +8200,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12714120" y="13014720"/>
-        <a:ext cx="5970240" cy="2044440"/>
+        <a:off x="12741120" y="13005720"/>
+        <a:ext cx="5969880" cy="2044080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8204,15 +8214,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>313920</xdr:colOff>
+      <xdr:colOff>340920</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>110880</xdr:rowOff>
+      <xdr:rowOff>177840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>429480</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>184680</xdr:rowOff>
+      <xdr:colOff>456120</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>76320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8220,8 +8230,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6600960" y="15588720"/>
-        <a:ext cx="5995440" cy="2245680"/>
+        <a:off x="6627960" y="15579720"/>
+        <a:ext cx="5995080" cy="2245320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8234,15 +8244,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>610560</xdr:colOff>
+      <xdr:colOff>637560</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>36720</xdr:rowOff>
+      <xdr:rowOff>103680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>270720</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>163440</xdr:rowOff>
+      <xdr:colOff>297360</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>55080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8250,8 +8260,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12777480" y="15705000"/>
-        <a:ext cx="5959440" cy="2108160"/>
+        <a:off x="12804480" y="15696000"/>
+        <a:ext cx="5959080" cy="2107800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8264,15 +8274,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>239760</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:colOff>266760</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>831240</xdr:colOff>
+      <xdr:colOff>857880</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>15480</xdr:rowOff>
+      <xdr:rowOff>97560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8280,8 +8290,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6526800" y="18162720"/>
-        <a:ext cx="5442840" cy="2055240"/>
+        <a:off x="6553800" y="18153720"/>
+        <a:ext cx="5442480" cy="2054880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8294,15 +8304,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>293040</xdr:colOff>
+      <xdr:colOff>320040</xdr:colOff>
       <xdr:row>92</xdr:row>
-      <xdr:rowOff>68760</xdr:rowOff>
+      <xdr:rowOff>151200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>609120</xdr:colOff>
+      <xdr:colOff>635760</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>5040</xdr:rowOff>
+      <xdr:rowOff>87120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8310,8 +8320,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12459960" y="18099360"/>
-        <a:ext cx="5586840" cy="2108160"/>
+        <a:off x="12486960" y="18090360"/>
+        <a:ext cx="5586480" cy="2107800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8324,15 +8334,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>430200</xdr:colOff>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>110</xdr:row>
-      <xdr:rowOff>100080</xdr:rowOff>
+      <xdr:rowOff>182520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>260280</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>100440</xdr:rowOff>
+      <xdr:colOff>286920</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8340,8 +8350,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6717240" y="21636000"/>
-        <a:ext cx="5709960" cy="1981440"/>
+        <a:off x="6744240" y="21627000"/>
+        <a:ext cx="5709600" cy="1981080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8354,15 +8364,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>441360</xdr:colOff>
+      <xdr:colOff>468360</xdr:colOff>
       <xdr:row>110</xdr:row>
-      <xdr:rowOff>100080</xdr:rowOff>
+      <xdr:rowOff>182520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>747000</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>153360</xdr:rowOff>
+      <xdr:colOff>773640</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>60120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8370,8 +8380,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12608280" y="21636000"/>
-        <a:ext cx="5576400" cy="2034360"/>
+        <a:off x="12635280" y="21627000"/>
+        <a:ext cx="5576040" cy="2034000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8384,15 +8394,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>229320</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>163800</xdr:rowOff>
+      <xdr:colOff>256320</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>70920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>355680</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
+      <xdr:colOff>382320</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>64440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8400,8 +8410,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6516360" y="24061680"/>
-        <a:ext cx="6006240" cy="2150280"/>
+        <a:off x="6543360" y="24052680"/>
+        <a:ext cx="6005880" cy="2149920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8414,15 +8424,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>494280</xdr:colOff>
+      <xdr:colOff>521280</xdr:colOff>
       <xdr:row>123</xdr:row>
-      <xdr:rowOff>57600</xdr:rowOff>
+      <xdr:rowOff>155520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>80280</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>78840</xdr:rowOff>
+      <xdr:colOff>106920</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8430,8 +8440,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12661200" y="24146280"/>
-        <a:ext cx="5885280" cy="2002320"/>
+        <a:off x="12688200" y="24137280"/>
+        <a:ext cx="5884920" cy="2001960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8444,15 +8454,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>218520</xdr:colOff>
+      <xdr:colOff>245520</xdr:colOff>
       <xdr:row>136</xdr:row>
-      <xdr:rowOff>57960</xdr:rowOff>
+      <xdr:rowOff>170640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>217800</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>131760</xdr:rowOff>
+      <xdr:colOff>244440</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>69120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8460,8 +8470,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6505560" y="26699040"/>
-        <a:ext cx="5879160" cy="2055240"/>
+        <a:off x="6532560" y="26690040"/>
+        <a:ext cx="5878800" cy="2054880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8474,15 +8484,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>324720</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>89640</xdr:rowOff>
+      <xdr:colOff>351720</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>11880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>746640</xdr:colOff>
+      <xdr:colOff>773280</xdr:colOff>
       <xdr:row>147</xdr:row>
-      <xdr:rowOff>25920</xdr:rowOff>
+      <xdr:rowOff>153720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8490,8 +8500,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12491640" y="26730720"/>
-        <a:ext cx="5692680" cy="2108160"/>
+        <a:off x="12518640" y="26721720"/>
+        <a:ext cx="5692320" cy="2107800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8504,15 +8514,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>271440</xdr:colOff>
-      <xdr:row>148</xdr:row>
-      <xdr:rowOff>142560</xdr:rowOff>
+      <xdr:colOff>298440</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>80280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>239040</xdr:colOff>
+      <xdr:colOff>265680</xdr:colOff>
       <xdr:row>159</xdr:row>
-      <xdr:rowOff>46800</xdr:rowOff>
+      <xdr:rowOff>174600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8520,8 +8530,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6558480" y="29145960"/>
-        <a:ext cx="5847480" cy="2076120"/>
+        <a:off x="6585480" y="29136960"/>
+        <a:ext cx="5847120" cy="2075760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8534,15 +8544,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>367200</xdr:colOff>
-      <xdr:row>148</xdr:row>
-      <xdr:rowOff>142560</xdr:rowOff>
+      <xdr:colOff>394200</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>80280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>778680</xdr:colOff>
-      <xdr:row>158</xdr:row>
-      <xdr:rowOff>142560</xdr:rowOff>
+      <xdr:colOff>805320</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>79560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8550,8 +8560,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12534120" y="29145960"/>
-        <a:ext cx="5682240" cy="1981080"/>
+        <a:off x="12561120" y="29136960"/>
+        <a:ext cx="5681880" cy="1980720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8564,15 +8574,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>303120</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>131760</xdr:rowOff>
+      <xdr:colOff>330120</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>69480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>302400</xdr:colOff>
+      <xdr:colOff>329040</xdr:colOff>
       <xdr:row>172</xdr:row>
-      <xdr:rowOff>1800</xdr:rowOff>
+      <xdr:rowOff>144720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8580,8 +8590,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6590160" y="31687920"/>
-        <a:ext cx="5879160" cy="1985760"/>
+        <a:off x="6617160" y="31678920"/>
+        <a:ext cx="5878800" cy="1985400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8594,15 +8604,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>356400</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:colOff>383400</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>122760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>735840</xdr:colOff>
-      <xdr:row>171</xdr:row>
-      <xdr:rowOff>110880</xdr:rowOff>
+      <xdr:colOff>762480</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8610,8 +8620,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12523320" y="31741200"/>
-        <a:ext cx="5650200" cy="1879200"/>
+        <a:off x="12550320" y="31732200"/>
+        <a:ext cx="5649840" cy="1878840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8629,15 +8639,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>455400</xdr:colOff>
+      <xdr:colOff>482400</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>40680</xdr:rowOff>
+      <xdr:rowOff>31680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>398160</xdr:colOff>
+      <xdr:colOff>424800</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>33840</xdr:rowOff>
+      <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8645,8 +8655,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1153800" y="2900520"/>
-        <a:ext cx="5759280" cy="3239280"/>
+        <a:off x="1180800" y="2891520"/>
+        <a:ext cx="5758920" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8659,15 +8669,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>363600</xdr:colOff>
+      <xdr:colOff>390600</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>67680</xdr:rowOff>
+      <xdr:rowOff>58680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>433440</xdr:colOff>
+      <xdr:colOff>460080</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>60840</xdr:rowOff>
+      <xdr:rowOff>51480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8675,8 +8685,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7691400" y="2927520"/>
-        <a:ext cx="5759280" cy="3239280"/>
+        <a:off x="7718400" y="2918520"/>
+        <a:ext cx="5758920" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8694,15 +8704,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>895320</xdr:colOff>
+      <xdr:colOff>922320</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>66600</xdr:rowOff>
+      <xdr:rowOff>57600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>748440</xdr:colOff>
+      <xdr:colOff>775080</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>59760</xdr:rowOff>
+      <xdr:rowOff>50400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8710,8 +8720,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4451760" y="3353760"/>
-        <a:ext cx="5759280" cy="3239280"/>
+        <a:off x="4478760" y="3344760"/>
+        <a:ext cx="5758920" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8724,15 +8734,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>362520</xdr:colOff>
+      <xdr:colOff>389520</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>155520</xdr:rowOff>
+      <xdr:rowOff>146520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>1245240</xdr:colOff>
+      <xdr:colOff>1271880</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>148680</xdr:rowOff>
+      <xdr:rowOff>139320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8740,8 +8750,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10638000" y="3442680"/>
-        <a:ext cx="5759280" cy="3239280"/>
+        <a:off x="10665000" y="3433680"/>
+        <a:ext cx="5758920" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8759,15 +8769,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>343440</xdr:colOff>
+      <xdr:colOff>370440</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>99720</xdr:rowOff>
+      <xdr:rowOff>90720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>413280</xdr:colOff>
+      <xdr:colOff>439920</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>184320</xdr:rowOff>
+      <xdr:rowOff>174960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8775,8 +8785,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4712760" y="1397520"/>
-        <a:ext cx="5759280" cy="3239280"/>
+        <a:off x="4739760" y="1388520"/>
+        <a:ext cx="5758920" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8794,15 +8804,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>559440</xdr:colOff>
+      <xdr:colOff>586440</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>61560</xdr:rowOff>
+      <xdr:rowOff>52560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>629280</xdr:colOff>
+      <xdr:colOff>655920</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>146160</xdr:rowOff>
+      <xdr:rowOff>136800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8810,8 +8820,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4928760" y="1359360"/>
-        <a:ext cx="5759280" cy="3239280"/>
+        <a:off x="4955760" y="1350360"/>
+        <a:ext cx="5758920" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8829,15 +8839,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>118800</xdr:colOff>
+      <xdr:colOff>145800</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>141480</xdr:rowOff>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>620280</xdr:colOff>
+      <xdr:colOff>646920</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>50760</xdr:rowOff>
+      <xdr:rowOff>41400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8845,8 +8855,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4246200" y="1732680"/>
-        <a:ext cx="5759280" cy="3239280"/>
+        <a:off x="4273200" y="1723680"/>
+        <a:ext cx="5758920" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8866,8 +8876,8 @@
   </sheetPr>
   <dimension ref="A1:K153"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A130" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B130" activeCellId="0" sqref="B130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -8895,117 +8905,117 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="3" t="n">
         <v>42388</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="6" t="n">
         <v>51</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="6" t="n">
         <v>472</v>
       </c>
-      <c r="E6" s="6" t="n">
+      <c r="E6" s="7" t="n">
         <f aca="false">(C6-D6)/C6</f>
         <v>-8.25490196078431</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="8" t="n">
+      <c r="C7" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="D7" s="8" t="n">
+      <c r="D7" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="E7" s="9" t="n">
+      <c r="E7" s="10" t="n">
         <f aca="false">(C7-D7)/C7</f>
         <v>0.457142857142857</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="8" t="n">
+      <c r="C8" s="9" t="n">
         <v>240</v>
       </c>
-      <c r="D8" s="8" t="n">
+      <c r="D8" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="9" t="n">
+      <c r="E8" s="10" t="n">
         <f aca="false">(C8-D8)/C8</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="8" t="n">
+      <c r="C9" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="D9" s="8" t="n">
+      <c r="D9" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="E9" s="9" t="n">
+      <c r="E9" s="10" t="n">
         <f aca="false">(C9-D9)/C9</f>
         <v>0.565217391304348</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="8" t="n">
+      <c r="C10" s="9" t="n">
         <v>90</v>
       </c>
-      <c r="D10" s="8" t="n">
+      <c r="D10" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="E10" s="9" t="n">
+      <c r="E10" s="10" t="n">
         <f aca="false">(C10-D10)/C10</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="8" t="n">
+      <c r="C11" s="9" t="n">
         <v>142</v>
       </c>
-      <c r="D11" s="8" t="n">
+      <c r="D11" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="E11" s="9" t="n">
+      <c r="E11" s="10" t="n">
         <f aca="false">(C11-D11)/C11</f>
         <v>0.943661971830986</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="10"/>
+      <c r="D12" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
@@ -9013,111 +9023,111 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="3" t="n">
         <v>42388</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="5" t="n">
+      <c r="C17" s="6" t="n">
         <v>51</v>
       </c>
-      <c r="D17" s="5" t="n">
+      <c r="D17" s="6" t="n">
         <v>24</v>
       </c>
-      <c r="E17" s="6" t="n">
+      <c r="E17" s="7" t="n">
         <f aca="false">(C17-D17)/C17</f>
         <v>0.529411764705882</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="8" t="n">
+      <c r="C18" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="D18" s="8" t="n">
+      <c r="D18" s="9" t="n">
         <v>44</v>
       </c>
-      <c r="E18" s="9" t="n">
+      <c r="E18" s="10" t="n">
         <f aca="false">(C18-D18)/C18</f>
         <v>-0.257142857142857</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="8" t="n">
+      <c r="C19" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="D19" s="8" t="n">
+      <c r="D19" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="E19" s="9" t="e">
+      <c r="E19" s="10" t="e">
         <f aca="false">(C19-D19)/C19</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="8" t="n">
+      <c r="C20" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="D20" s="8" t="n">
+      <c r="D20" s="9" t="n">
         <v>14</v>
       </c>
-      <c r="E20" s="9" t="n">
+      <c r="E20" s="10" t="n">
         <f aca="false">(C20-D20)/C20</f>
         <v>0.391304347826087</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="8" t="n">
+      <c r="C21" s="9" t="n">
         <v>90</v>
       </c>
-      <c r="D21" s="8" t="n">
+      <c r="D21" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="E21" s="9" t="n">
+      <c r="E21" s="10" t="n">
         <f aca="false">(C21-D21)/C21</f>
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="8" t="n">
+      <c r="C22" s="9" t="n">
         <v>142</v>
       </c>
-      <c r="D22" s="11" t="n">
+      <c r="D22" s="12" t="n">
         <v>32</v>
       </c>
-      <c r="E22" s="9" t="n">
+      <c r="E22" s="10" t="n">
         <f aca="false">(C22-D22)/C22</f>
         <v>0.774647887323944</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D23" s="12"/>
+      <c r="D23" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
@@ -9125,105 +9135,105 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="2" t="n">
+      <c r="B27" s="3" t="n">
         <v>42388</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="5" t="n">
+      <c r="C28" s="6" t="n">
         <v>51</v>
       </c>
-      <c r="D28" s="5" t="n">
+      <c r="D28" s="6" t="n">
         <v>54</v>
       </c>
-      <c r="E28" s="6" t="n">
+      <c r="E28" s="7" t="n">
         <f aca="false">(C28-D28)/C28</f>
         <v>-0.0588235294117647</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="8" t="n">
+      <c r="C29" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="D29" s="8" t="n">
+      <c r="D29" s="9" t="n">
         <v>34</v>
       </c>
-      <c r="E29" s="9" t="n">
+      <c r="E29" s="10" t="n">
         <f aca="false">(C29-D29)/C29</f>
         <v>0.0285714285714286</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="8" t="n">
+      <c r="C30" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="D30" s="8" t="n">
+      <c r="D30" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="E30" s="9" t="e">
+      <c r="E30" s="10" t="e">
         <f aca="false">(C30-D30)/C30</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="8" t="n">
+      <c r="C31" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="D31" s="8" t="n">
+      <c r="D31" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="E31" s="9" t="n">
+      <c r="E31" s="10" t="n">
         <f aca="false">(C31-D31)/C31</f>
         <v>0.217391304347826</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="8" t="n">
+      <c r="C32" s="9" t="n">
         <v>90</v>
       </c>
-      <c r="D32" s="8" t="n">
+      <c r="D32" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="E32" s="9" t="n">
+      <c r="E32" s="10" t="n">
         <f aca="false">(C32-D32)/C32</f>
         <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="8" t="n">
+      <c r="C33" s="9" t="n">
         <v>142</v>
       </c>
-      <c r="D33" s="8" t="n">
+      <c r="D33" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="E33" s="9" t="n">
+      <c r="E33" s="10" t="n">
         <f aca="false">(C33-D33)/C33</f>
         <v>0.922535211267606</v>
       </c>
@@ -9234,432 +9244,432 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="2" t="n">
+      <c r="B39" s="3" t="n">
         <v>42388</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="5" t="n">
+      <c r="C40" s="6" t="n">
         <v>51</v>
       </c>
-      <c r="D40" s="5" t="n">
+      <c r="D40" s="6" t="n">
         <v>53</v>
       </c>
-      <c r="E40" s="6" t="n">
+      <c r="E40" s="7" t="n">
         <f aca="false">(C40-D40)/C40</f>
         <v>-0.0392156862745098</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="8" t="n">
+      <c r="C41" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="D41" s="8" t="n">
+      <c r="D41" s="9" t="n">
         <v>44</v>
       </c>
-      <c r="E41" s="9" t="n">
+      <c r="E41" s="10" t="n">
         <f aca="false">(C41-D41)/C41</f>
         <v>-0.257142857142857</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="8" t="n">
+      <c r="C42" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="D42" s="8" t="n">
+      <c r="D42" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="E42" s="9" t="e">
+      <c r="E42" s="10" t="e">
         <f aca="false">(C42-D42)/C42</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="8" t="n">
+      <c r="C43" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="D43" s="8" t="n">
+      <c r="D43" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="E43" s="9" t="n">
+      <c r="E43" s="10" t="n">
         <f aca="false">(C43-D43)/C43</f>
         <v>0.130434782608696</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="8" t="n">
+      <c r="C44" s="9" t="n">
         <v>90</v>
       </c>
-      <c r="D44" s="8" t="n">
+      <c r="D44" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="E44" s="9" t="n">
+      <c r="E44" s="10" t="n">
         <f aca="false">(C44-D44)/C44</f>
         <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="8" t="n">
+      <c r="C45" s="9" t="n">
         <v>142</v>
       </c>
-      <c r="D45" s="8" t="n">
+      <c r="D45" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="E45" s="9" t="n">
+      <c r="E45" s="10" t="n">
         <f aca="false">(C45-D45)/C45</f>
         <v>0.866197183098591</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="0" t="s">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="2" t="n">
+      <c r="B50" s="3" t="n">
         <v>42388</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C51" s="5" t="n">
+      <c r="C51" s="6" t="n">
         <v>51</v>
       </c>
-      <c r="D51" s="5" t="n">
+      <c r="D51" s="6" t="n">
         <v>155</v>
       </c>
-      <c r="E51" s="6" t="n">
+      <c r="E51" s="7" t="n">
         <f aca="false">(C51-D51)/C51</f>
         <v>-2.03921568627451</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="8" t="n">
+      <c r="C52" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="D52" s="8" t="n">
+      <c r="D52" s="9" t="n">
         <v>32</v>
       </c>
-      <c r="E52" s="9" t="n">
+      <c r="E52" s="10" t="n">
         <f aca="false">(C52-D52)/C52</f>
         <v>0.0857142857142857</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="8" t="n">
+      <c r="C53" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="D53" s="8" t="n">
+      <c r="D53" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="E53" s="9" t="e">
+      <c r="E53" s="10" t="e">
         <f aca="false">(C53-D53)/C53</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="8" t="n">
+      <c r="C54" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="D54" s="8" t="n">
+      <c r="D54" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="E54" s="9" t="n">
+      <c r="E54" s="10" t="n">
         <f aca="false">(C54-D54)/C54</f>
         <v>0.0869565217391304</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="8" t="n">
+      <c r="C55" s="9" t="n">
         <v>90</v>
       </c>
-      <c r="D55" s="8" t="n">
+      <c r="D55" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="E55" s="9" t="n">
+      <c r="E55" s="10" t="n">
         <f aca="false">(C55-D55)/C55</f>
         <v>1</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="8" t="n">
+      <c r="C56" s="9" t="n">
         <v>142</v>
       </c>
-      <c r="D56" s="8" t="n">
+      <c r="D56" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="E56" s="9" t="n">
+      <c r="E56" s="10" t="n">
         <f aca="false">(C56-D56)/C56</f>
         <v>0.929577464788732</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="0" t="s">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="2" t="n">
+      <c r="B61" s="3" t="n">
         <v>42388</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E61" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C62" s="5" t="n">
+      <c r="C62" s="6" t="n">
         <v>51</v>
       </c>
-      <c r="D62" s="5" t="n">
+      <c r="D62" s="6" t="n">
         <v>465</v>
       </c>
-      <c r="E62" s="6" t="n">
+      <c r="E62" s="7" t="n">
         <f aca="false">(C62-D62)/C62</f>
         <v>-8.11764705882353</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C63" s="8" t="n">
+      <c r="C63" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="D63" s="8" t="n">
+      <c r="D63" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="E63" s="9" t="n">
+      <c r="E63" s="10" t="n">
         <f aca="false">(C63-D63)/C63</f>
         <v>0.828571428571429</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C64" s="8" t="n">
+      <c r="C64" s="9" t="n">
         <v>90</v>
       </c>
-      <c r="D64" s="8" t="n">
+      <c r="D64" s="9" t="n">
         <v>135</v>
       </c>
-      <c r="E64" s="9" t="n">
+      <c r="E64" s="10" t="n">
         <f aca="false">(C64-D64)/C64</f>
         <v>-0.5</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C65" s="8" t="n">
+      <c r="C65" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="D65" s="8" t="n">
+      <c r="D65" s="9" t="n">
         <v>14</v>
       </c>
-      <c r="E65" s="9" t="n">
+      <c r="E65" s="10" t="n">
         <f aca="false">(C65-D65)/C65</f>
         <v>0.391304347826087</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C66" s="8" t="n">
+      <c r="C66" s="9" t="n">
         <v>90</v>
       </c>
-      <c r="D66" s="8" t="n">
+      <c r="D66" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="E66" s="9" t="n">
+      <c r="E66" s="10" t="n">
         <f aca="false">(C66-D66)/C66</f>
         <v>1</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C67" s="8" t="n">
+      <c r="C67" s="9" t="n">
         <v>142</v>
       </c>
-      <c r="D67" s="8" t="n">
+      <c r="D67" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="E67" s="9" t="n">
+      <c r="E67" s="10" t="n">
         <f aca="false">(C67-D67)/C67</f>
         <v>0.753521126760563</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="0" t="s">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="2" t="n">
+      <c r="B73" s="3" t="n">
         <v>42388</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D73" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E73" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="5" t="n">
+      <c r="C74" s="6" t="n">
         <v>51</v>
       </c>
-      <c r="D74" s="5" t="n">
+      <c r="D74" s="6" t="n">
         <v>112</v>
       </c>
-      <c r="E74" s="6" t="n">
+      <c r="E74" s="7" t="n">
         <f aca="false">(C74-D74)/C74</f>
         <v>-1.19607843137255</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C75" s="8" t="n">
+      <c r="C75" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="D75" s="8" t="n">
+      <c r="D75" s="9" t="n">
         <v>76</v>
       </c>
-      <c r="E75" s="9" t="n">
+      <c r="E75" s="10" t="n">
         <f aca="false">(C75-D75)/C75</f>
         <v>-1.17142857142857</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C76" s="8" t="n">
+      <c r="C76" s="9" t="n">
         <v>120</v>
       </c>
-      <c r="D76" s="8" t="n">
+      <c r="D76" s="9" t="n">
         <v>89</v>
       </c>
-      <c r="E76" s="9" t="n">
+      <c r="E76" s="10" t="n">
         <f aca="false">(C76-D76)/C76</f>
         <v>0.258333333333333</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C77" s="8" t="n">
+      <c r="C77" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="D77" s="8" t="n">
+      <c r="D77" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="E77" s="9" t="n">
+      <c r="E77" s="10" t="n">
         <f aca="false">(C77-D77)/C77</f>
         <v>0.0434782608695652</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C78" s="8" t="n">
+      <c r="C78" s="9" t="n">
         <v>90</v>
       </c>
-      <c r="D78" s="8" t="n">
+      <c r="D78" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="E78" s="9" t="n">
+      <c r="E78" s="10" t="n">
         <f aca="false">(C78-D78)/C78</f>
         <v>1</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C79" s="8" t="n">
+      <c r="C79" s="9" t="n">
         <v>142</v>
       </c>
-      <c r="D79" s="8" t="n">
+      <c r="D79" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="E79" s="9" t="n">
+      <c r="E79" s="10" t="n">
         <f aca="false">(C79-D79)/C79</f>
         <v>0.908450704225352</v>
       </c>
@@ -9670,323 +9680,323 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="2" t="n">
+      <c r="B85" s="3" t="n">
         <v>42388</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D85" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="E85" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C86" s="5" t="n">
+      <c r="C86" s="6" t="n">
         <v>51</v>
       </c>
-      <c r="D86" s="5" t="n">
+      <c r="D86" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="E86" s="6" t="n">
+      <c r="E86" s="7" t="n">
         <f aca="false">(C86-D86)/C86</f>
         <v>0.901960784313726</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C87" s="8" t="n">
+      <c r="C87" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="D87" s="8" t="n">
+      <c r="D87" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="E87" s="9" t="n">
+      <c r="E87" s="10" t="n">
         <f aca="false">(C87-D87)/C87</f>
         <v>0.857142857142857</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="7" t="s">
+      <c r="B88" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C88" s="8" t="n">
+      <c r="C88" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="D88" s="8" t="n">
+      <c r="D88" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="E88" s="9" t="e">
+      <c r="E88" s="10" t="e">
         <f aca="false">(C88-D88)/C88</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C89" s="8" t="n">
+      <c r="C89" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="D89" s="8" t="n">
+      <c r="D89" s="9" t="n">
         <v>32</v>
       </c>
-      <c r="E89" s="9" t="n">
+      <c r="E89" s="10" t="n">
         <f aca="false">(C89-D89)/C89</f>
         <v>-0.391304347826087</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C90" s="8" t="n">
+      <c r="C90" s="9" t="n">
         <v>90</v>
       </c>
-      <c r="D90" s="8" t="n">
+      <c r="D90" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="E90" s="9" t="n">
+      <c r="E90" s="10" t="n">
         <f aca="false">(C90-D90)/C90</f>
         <v>1</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C91" s="8" t="n">
+      <c r="C91" s="9" t="n">
         <v>142</v>
       </c>
-      <c r="D91" s="8" t="n">
+      <c r="D91" s="9" t="n">
         <v>39</v>
       </c>
-      <c r="E91" s="9" t="n">
+      <c r="E91" s="10" t="n">
         <f aca="false">(C91-D91)/C91</f>
         <v>0.725352112676056</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="0" t="s">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="2" t="n">
+      <c r="B97" s="3" t="n">
         <v>42388</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D97" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E97" s="3" t="s">
+      <c r="E97" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C98" s="5" t="n">
+      <c r="C98" s="6" t="n">
         <v>51</v>
       </c>
-      <c r="D98" s="5" t="n">
+      <c r="D98" s="6" t="n">
         <v>110</v>
       </c>
-      <c r="E98" s="6" t="n">
+      <c r="E98" s="7" t="n">
         <f aca="false">(C98-D98)/C98</f>
         <v>-1.15686274509804</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="7" t="s">
+      <c r="B99" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C99" s="8" t="n">
+      <c r="C99" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="D99" s="8" t="n">
+      <c r="D99" s="9" t="n">
         <v>117</v>
       </c>
-      <c r="E99" s="9" t="n">
+      <c r="E99" s="10" t="n">
         <f aca="false">(C99-D99)/C99</f>
         <v>-2.34285714285714</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="7" t="s">
+      <c r="B100" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C100" s="8" t="n">
+      <c r="C100" s="9" t="n">
         <v>300</v>
       </c>
-      <c r="D100" s="8" t="n">
+      <c r="D100" s="9" t="n">
         <v>410</v>
       </c>
-      <c r="E100" s="9" t="n">
+      <c r="E100" s="10" t="n">
         <f aca="false">(C100-D100)/C100</f>
         <v>-0.366666666666667</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="7" t="s">
+      <c r="B101" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C101" s="8" t="n">
+      <c r="C101" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="D101" s="8" t="n">
+      <c r="D101" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="E101" s="9" t="n">
+      <c r="E101" s="10" t="n">
         <f aca="false">(C101-D101)/C101</f>
         <v>0.869565217391304</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="7" t="s">
+      <c r="B102" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C102" s="8" t="n">
+      <c r="C102" s="9" t="n">
         <v>90</v>
       </c>
-      <c r="D102" s="8" t="n">
+      <c r="D102" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="E102" s="9" t="n">
+      <c r="E102" s="10" t="n">
         <f aca="false">(C102-D102)/C102</f>
         <v>1</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="7" t="s">
+      <c r="B103" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C103" s="8" t="n">
+      <c r="C103" s="9" t="n">
         <v>142</v>
       </c>
-      <c r="D103" s="8" t="n">
+      <c r="D103" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="E103" s="9" t="n">
+      <c r="E103" s="10" t="n">
         <f aca="false">(C103-D103)/C103</f>
         <v>0.788732394366197</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="0" t="s">
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="2" t="n">
+      <c r="B108" s="3" t="n">
         <v>42388</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C108" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="D108" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E108" s="3" t="s">
+      <c r="E108" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C109" s="5" t="n">
+      <c r="C109" s="6" t="n">
         <v>51</v>
       </c>
-      <c r="D109" s="5" t="n">
+      <c r="D109" s="6" t="n">
         <v>153</v>
       </c>
-      <c r="E109" s="6" t="n">
+      <c r="E109" s="7" t="n">
         <f aca="false">(C109-D109)/C109</f>
         <v>-2</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="7" t="s">
+      <c r="B110" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C110" s="8" t="n">
+      <c r="C110" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="D110" s="8" t="n">
+      <c r="D110" s="9" t="n">
         <v>57</v>
       </c>
-      <c r="E110" s="9" t="n">
+      <c r="E110" s="10" t="n">
         <f aca="false">(C110-D110)/C110</f>
         <v>-0.628571428571429</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="7" t="s">
+      <c r="B111" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C111" s="8" t="n">
+      <c r="C111" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="D111" s="8" t="n">
+      <c r="D111" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="E111" s="9" t="e">
+      <c r="E111" s="10" t="e">
         <f aca="false">(C111-D111)/C111</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="7" t="s">
+      <c r="B112" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C112" s="8" t="n">
+      <c r="C112" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="D112" s="8" t="n">
+      <c r="D112" s="9" t="n">
         <v>37</v>
       </c>
-      <c r="E112" s="9" t="n">
+      <c r="E112" s="10" t="n">
         <f aca="false">(C112-D112)/C112</f>
         <v>-0.608695652173913</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="7" t="s">
+      <c r="B113" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C113" s="8" t="n">
+      <c r="C113" s="9" t="n">
         <v>90</v>
       </c>
-      <c r="D113" s="8" t="n">
+      <c r="D113" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="E113" s="9" t="n">
+      <c r="E113" s="10" t="n">
         <f aca="false">(C113-D113)/C113</f>
         <v>1</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="7" t="s">
+      <c r="B114" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C114" s="8" t="n">
+      <c r="C114" s="9" t="n">
         <v>142</v>
       </c>
-      <c r="D114" s="8" t="n">
+      <c r="D114" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="E114" s="9" t="n">
+      <c r="E114" s="10" t="n">
         <f aca="false">(C114-D114)/C114</f>
         <v>0.894366197183099</v>
       </c>
@@ -9995,111 +10005,111 @@
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="0" t="s">
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B122" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="2" t="n">
+      <c r="B123" s="3" t="n">
         <v>42388</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C123" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D123" s="3" t="s">
+      <c r="D123" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E123" s="3" t="s">
+      <c r="E123" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="4" t="s">
+      <c r="B124" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C124" s="5" t="n">
+      <c r="C124" s="6" t="n">
         <v>51</v>
       </c>
-      <c r="D124" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E124" s="6" t="n">
+      <c r="D124" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E124" s="7" t="n">
         <f aca="false">(C124-D124)/C124</f>
         <v>0.980392156862745</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="7" t="s">
+      <c r="B125" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C125" s="8" t="n">
+      <c r="C125" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="D125" s="8" t="n">
+      <c r="D125" s="9" t="n">
         <v>208</v>
       </c>
-      <c r="E125" s="9" t="n">
+      <c r="E125" s="10" t="n">
         <f aca="false">(C125-D125)/C125</f>
         <v>-4.94285714285714</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="7" t="s">
+      <c r="B126" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C126" s="8" t="n">
+      <c r="C126" s="9" t="n">
         <v>80</v>
       </c>
-      <c r="D126" s="8" t="n">
+      <c r="D126" s="9" t="n">
         <v>14</v>
       </c>
-      <c r="E126" s="9" t="n">
+      <c r="E126" s="10" t="n">
         <f aca="false">(C126-D126)/C126</f>
         <v>0.825</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="7" t="s">
+      <c r="B127" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C127" s="8" t="n">
+      <c r="C127" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="D127" s="8" t="n">
+      <c r="D127" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="E127" s="9" t="n">
+      <c r="E127" s="10" t="n">
         <f aca="false">(C127-D127)/C127</f>
         <v>0.739130434782609</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="7" t="s">
+      <c r="B128" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C128" s="8" t="n">
+      <c r="C128" s="9" t="n">
         <v>90</v>
       </c>
-      <c r="D128" s="8" t="n">
+      <c r="D128" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="E128" s="9" t="n">
+      <c r="E128" s="10" t="n">
         <f aca="false">(C128-D128)/C128</f>
         <v>1</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="7" t="s">
+      <c r="B129" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C129" s="8" t="n">
+      <c r="C129" s="9" t="n">
         <v>142</v>
       </c>
-      <c r="D129" s="8" t="n">
+      <c r="D129" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="E129" s="9" t="n">
+      <c r="E129" s="10" t="n">
         <f aca="false">(C129-D129)/C129</f>
         <v>0.873239436619718</v>
       </c>
@@ -10110,214 +10120,214 @@
       </c>
     </row>
     <row r="135" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="2" t="n">
+      <c r="B135" s="3" t="n">
         <v>42388</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="C135" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D135" s="3" t="s">
+      <c r="D135" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E135" s="3" t="s">
+      <c r="E135" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="4" t="s">
+      <c r="B136" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C136" s="5" t="n">
+      <c r="C136" s="6" t="n">
         <v>51</v>
       </c>
-      <c r="D136" s="5" t="n">
+      <c r="D136" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="E136" s="6" t="n">
+      <c r="E136" s="7" t="n">
         <f aca="false">(C136-D136)/C136</f>
         <v>0.803921568627451</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="7" t="s">
+      <c r="B137" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C137" s="8" t="n">
+      <c r="C137" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="D137" s="8" t="n">
+      <c r="D137" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="E137" s="9" t="n">
+      <c r="E137" s="10" t="n">
         <f aca="false">(C137-D137)/C137</f>
         <v>0.914285714285714</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="7" t="s">
+      <c r="B138" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C138" s="8" t="n">
+      <c r="C138" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="D138" s="8" t="n">
+      <c r="D138" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="E138" s="9" t="e">
+      <c r="E138" s="10" t="e">
         <f aca="false">(C138-D138)/C138</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="7" t="s">
+      <c r="B139" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C139" s="8" t="n">
+      <c r="C139" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="D139" s="8" t="n">
+      <c r="D139" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="E139" s="9" t="n">
+      <c r="E139" s="10" t="n">
         <f aca="false">(C139-D139)/C139</f>
         <v>0.260869565217391</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="7" t="s">
+      <c r="B140" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C140" s="8" t="n">
+      <c r="C140" s="9" t="n">
         <v>90</v>
       </c>
-      <c r="D140" s="8" t="n">
+      <c r="D140" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="E140" s="9" t="n">
+      <c r="E140" s="10" t="n">
         <f aca="false">(C140-D140)/C140</f>
         <v>1</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="7" t="s">
+      <c r="B141" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C141" s="8" t="n">
+      <c r="C141" s="9" t="n">
         <v>142</v>
       </c>
-      <c r="D141" s="8" t="n">
+      <c r="D141" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="E141" s="9" t="n">
+      <c r="E141" s="10" t="n">
         <f aca="false">(C141-D141)/C141</f>
         <v>0.880281690140845</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="0" t="s">
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B146" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B147" s="2" t="n">
+      <c r="B147" s="3" t="n">
         <v>42388</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C147" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D147" s="3" t="s">
+      <c r="D147" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E147" s="3" t="s">
+      <c r="E147" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="4" t="s">
+      <c r="B148" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C148" s="5" t="n">
+      <c r="C148" s="6" t="n">
         <v>51</v>
       </c>
-      <c r="D148" s="5" t="n">
+      <c r="D148" s="6" t="n">
         <v>605</v>
       </c>
-      <c r="E148" s="6" t="n">
+      <c r="E148" s="7" t="n">
         <f aca="false">(C148-D148)/C148</f>
         <v>-10.8627450980392</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B149" s="7" t="s">
+      <c r="B149" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C149" s="8" t="n">
+      <c r="C149" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="D149" s="8" t="n">
+      <c r="D149" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="E149" s="9" t="n">
+      <c r="E149" s="10" t="n">
         <f aca="false">(C149-D149)/C149</f>
         <v>0.885714285714286</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="7" t="s">
+      <c r="B150" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C150" s="8" t="n">
+      <c r="C150" s="9" t="n">
         <v>180</v>
       </c>
-      <c r="D150" s="8" t="n">
+      <c r="D150" s="9" t="n">
         <v>79</v>
       </c>
-      <c r="E150" s="9" t="n">
+      <c r="E150" s="10" t="n">
         <f aca="false">(C150-D150)/C150</f>
         <v>0.561111111111111</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="7" t="s">
+      <c r="B151" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C151" s="8" t="n">
+      <c r="C151" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="D151" s="8" t="n">
+      <c r="D151" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="E151" s="9" t="n">
+      <c r="E151" s="10" t="n">
         <f aca="false">(C151-D151)/C151</f>
         <v>0.478260869565217</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B152" s="7" t="s">
+      <c r="B152" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C152" s="8" t="n">
+      <c r="C152" s="9" t="n">
         <v>90</v>
       </c>
-      <c r="D152" s="8" t="n">
+      <c r="D152" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="E152" s="9" t="n">
+      <c r="E152" s="10" t="n">
         <f aca="false">(C152-D152)/C152</f>
         <v>1</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B153" s="7" t="s">
+      <c r="B153" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C153" s="8" t="n">
+      <c r="C153" s="9" t="n">
         <v>142</v>
       </c>
-      <c r="D153" s="8" t="n">
+      <c r="D153" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="E153" s="9" t="n">
+      <c r="E153" s="10" t="n">
         <f aca="false">(C153-D153)/C153</f>
         <v>0.873239436619718</v>
       </c>
@@ -10340,8 +10350,8 @@
   </sheetPr>
   <dimension ref="B1:F170"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A160" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D189" activeCellId="0" sqref="D189"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -10360,1774 +10370,1774 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="3" t="n">
         <v>42388</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="15"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="16" t="n">
+      <c r="C5" s="17" t="n">
         <v>22.33</v>
       </c>
-      <c r="D5" s="16" t="n">
+      <c r="D5" s="17" t="n">
         <f aca="false">472/60*14.58</f>
         <v>114.696</v>
       </c>
-      <c r="E5" s="17" t="n">
+      <c r="E5" s="18" t="n">
         <f aca="false">(C5-D5)/C5</f>
         <v>-4.13640841916704</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="16" t="n">
+      <c r="C6" s="17" t="n">
         <v>3.96</v>
       </c>
-      <c r="D6" s="16" t="n">
+      <c r="D6" s="17" t="n">
         <f aca="false">19/60*14.58</f>
         <v>4.617</v>
       </c>
-      <c r="E6" s="18" t="n">
+      <c r="E6" s="19" t="n">
         <f aca="false">(C6-D6)/C6</f>
         <v>-0.165909090909091</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="16" t="n">
+      <c r="C7" s="17" t="n">
         <v>19.4</v>
       </c>
-      <c r="D7" s="16" t="n">
+      <c r="D7" s="17" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="18" t="n">
+      <c r="E7" s="19" t="n">
         <f aca="false">(C7-D7)/C7</f>
         <v>1</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="16" t="n">
+      <c r="C8" s="17" t="n">
         <v>5.5</v>
       </c>
-      <c r="D8" s="16" t="n">
+      <c r="D8" s="17" t="n">
         <f aca="false">8/60*14.58</f>
         <v>1.944</v>
       </c>
-      <c r="E8" s="17" t="n">
+      <c r="E8" s="18" t="n">
         <f aca="false">(C8-D8)/C8</f>
         <v>0.646545454545455</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="16" t="n">
+      <c r="C9" s="17" t="n">
         <v>29</v>
       </c>
-      <c r="D9" s="16" t="n">
+      <c r="D9" s="17" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="18" t="n">
+      <c r="E9" s="19" t="n">
         <f aca="false">(C9-D9)/C9</f>
         <v>1</v>
       </c>
-      <c r="F9" s="10"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="16" t="n">
+      <c r="C10" s="17" t="n">
         <v>22.5</v>
       </c>
-      <c r="D10" s="16" t="n">
+      <c r="D10" s="17" t="n">
         <f aca="false">2/60*7.29</f>
         <v>0.243</v>
       </c>
-      <c r="E10" s="17" t="n">
+      <c r="E10" s="18" t="n">
         <f aca="false">(C10-D10)/C10</f>
         <v>0.9892</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F11" s="15"/>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F12" s="15"/>
+      <c r="F12" s="16"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F13" s="15"/>
+      <c r="F13" s="16"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F14" s="15"/>
+      <c r="F14" s="16"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F15" s="15"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="15"/>
+      <c r="F16" s="16"/>
     </row>
     <row r="17" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="2" t="n">
+      <c r="B17" s="3" t="n">
         <v>42388</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="15"/>
+      <c r="F17" s="16"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="16" t="n">
+      <c r="C18" s="17" t="n">
         <v>22.33</v>
       </c>
-      <c r="D18" s="16" t="n">
+      <c r="D18" s="17" t="n">
         <f aca="false">24/60*14.58</f>
         <v>5.832</v>
       </c>
-      <c r="E18" s="17" t="n">
+      <c r="E18" s="18" t="n">
         <f aca="false">(C18-D18)/C18</f>
         <v>0.738826690550828</v>
       </c>
-      <c r="F18" s="10"/>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="16" t="n">
+      <c r="C19" s="17" t="n">
         <v>3.96</v>
       </c>
-      <c r="D19" s="16" t="n">
+      <c r="D19" s="17" t="n">
         <f aca="false">44/60*14.58</f>
         <v>10.692</v>
       </c>
-      <c r="E19" s="18" t="n">
+      <c r="E19" s="19" t="n">
         <f aca="false">(C19-D19)/C19</f>
         <v>-1.7</v>
       </c>
-      <c r="F19" s="10"/>
+      <c r="F19" s="11"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="16" t="n">
+      <c r="C20" s="17" t="n">
         <v>19.4</v>
       </c>
-      <c r="D20" s="16" t="n">
+      <c r="D20" s="17" t="n">
         <v>0</v>
       </c>
-      <c r="E20" s="18" t="n">
+      <c r="E20" s="19" t="n">
         <f aca="false">(C20-D20)/C20</f>
         <v>1</v>
       </c>
-      <c r="F20" s="10"/>
+      <c r="F20" s="11"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="16" t="n">
+      <c r="C21" s="17" t="n">
         <v>5.5</v>
       </c>
-      <c r="D21" s="16" t="n">
+      <c r="D21" s="17" t="n">
         <f aca="false">14/60*14.58</f>
         <v>3.402</v>
       </c>
-      <c r="E21" s="17" t="n">
+      <c r="E21" s="18" t="n">
         <f aca="false">(C21-D21)/C21</f>
         <v>0.381454545454545</v>
       </c>
-      <c r="F21" s="10"/>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="16" t="n">
+      <c r="C22" s="17" t="n">
         <v>29</v>
       </c>
-      <c r="D22" s="16" t="n">
+      <c r="D22" s="17" t="n">
         <v>0</v>
       </c>
-      <c r="E22" s="18" t="n">
+      <c r="E22" s="19" t="n">
         <f aca="false">(C22-D22)/C22</f>
         <v>1</v>
       </c>
-      <c r="F22" s="10"/>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="16" t="n">
+      <c r="C23" s="17" t="n">
         <v>22.5</v>
       </c>
-      <c r="D23" s="16" t="n">
+      <c r="D23" s="17" t="n">
         <f aca="false">32/60*7.29</f>
         <v>3.888</v>
       </c>
-      <c r="E23" s="17" t="n">
+      <c r="E23" s="18" t="n">
         <f aca="false">(C23-D23)/C23</f>
         <v>0.8272</v>
       </c>
-      <c r="F23" s="10"/>
+      <c r="F23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F24" s="15"/>
+      <c r="F24" s="16"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F25" s="15"/>
+      <c r="F25" s="16"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F26" s="15"/>
+      <c r="F26" s="16"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F27" s="15"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="s">
+      <c r="F27" s="16"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="15"/>
+      <c r="F28" s="16"/>
     </row>
     <row r="29" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="2" t="n">
+      <c r="B29" s="3" t="n">
         <v>42388</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="15"/>
+      <c r="F29" s="16"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="16" t="n">
+      <c r="C30" s="17" t="n">
         <v>22.33</v>
       </c>
-      <c r="D30" s="16" t="n">
+      <c r="D30" s="17" t="n">
         <f aca="false">54/60*14.58</f>
         <v>13.122</v>
       </c>
-      <c r="E30" s="17" t="n">
+      <c r="E30" s="18" t="n">
         <f aca="false">(C30-D30)/C30</f>
         <v>0.412360053739364</v>
       </c>
-      <c r="F30" s="10"/>
+      <c r="F30" s="11"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="16" t="n">
+      <c r="C31" s="17" t="n">
         <v>3.96</v>
       </c>
-      <c r="D31" s="16" t="n">
+      <c r="D31" s="17" t="n">
         <f aca="false">34/60*14.58</f>
         <v>8.262</v>
       </c>
-      <c r="E31" s="18" t="n">
+      <c r="E31" s="19" t="n">
         <f aca="false">(C31-D31)/C31</f>
         <v>-1.08636363636364</v>
       </c>
-      <c r="F31" s="10"/>
+      <c r="F31" s="11"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="16" t="n">
+      <c r="C32" s="17" t="n">
         <v>19.4</v>
       </c>
-      <c r="D32" s="16" t="n">
+      <c r="D32" s="17" t="n">
         <v>0</v>
       </c>
-      <c r="E32" s="18" t="n">
+      <c r="E32" s="19" t="n">
         <f aca="false">(C32-D32)/C32</f>
         <v>1</v>
       </c>
-      <c r="F32" s="10"/>
+      <c r="F32" s="11"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="16" t="n">
+      <c r="C33" s="17" t="n">
         <v>5.5</v>
       </c>
-      <c r="D33" s="16" t="n">
+      <c r="D33" s="17" t="n">
         <f aca="false">18/60*14.58</f>
         <v>4.374</v>
       </c>
-      <c r="E33" s="17" t="n">
+      <c r="E33" s="18" t="n">
         <f aca="false">(C33-D33)/C33</f>
         <v>0.204727272727273</v>
       </c>
-      <c r="F33" s="10"/>
+      <c r="F33" s="11"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="16" t="n">
+      <c r="C34" s="17" t="n">
         <v>29</v>
       </c>
-      <c r="D34" s="16" t="n">
+      <c r="D34" s="17" t="n">
         <v>0</v>
       </c>
-      <c r="E34" s="18" t="n">
+      <c r="E34" s="19" t="n">
         <f aca="false">(C34-D34)/C34</f>
         <v>1</v>
       </c>
-      <c r="F34" s="10"/>
+      <c r="F34" s="11"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="16" t="n">
+      <c r="C35" s="17" t="n">
         <v>22.5</v>
       </c>
-      <c r="D35" s="16" t="n">
+      <c r="D35" s="17" t="n">
         <f aca="false">11/60*7.29</f>
         <v>1.3365</v>
       </c>
-      <c r="E35" s="17" t="n">
+      <c r="E35" s="18" t="n">
         <f aca="false">(C35-D35)/C35</f>
         <v>0.9406</v>
       </c>
-      <c r="F35" s="10"/>
+      <c r="F35" s="11"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F36" s="15"/>
+      <c r="F36" s="16"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F37" s="15"/>
+      <c r="F37" s="16"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F38" s="15"/>
+      <c r="F38" s="16"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F39" s="15"/>
+      <c r="F39" s="16"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F40" s="15"/>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0" t="s">
+      <c r="F40" s="16"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F41" s="15"/>
+      <c r="F41" s="16"/>
     </row>
     <row r="42" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="2" t="n">
+      <c r="B42" s="3" t="n">
         <v>42388</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="E42" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="15"/>
+      <c r="F42" s="16"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="16" t="n">
+      <c r="C43" s="17" t="n">
         <v>22.33</v>
       </c>
-      <c r="D43" s="16" t="n">
+      <c r="D43" s="17" t="n">
         <f aca="false">53/60*14.58</f>
         <v>12.879</v>
       </c>
-      <c r="E43" s="17" t="n">
+      <c r="E43" s="18" t="n">
         <f aca="false">(C43-D43)/C43</f>
         <v>0.423242274966413</v>
       </c>
-      <c r="F43" s="10"/>
+      <c r="F43" s="11"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="16" t="n">
+      <c r="C44" s="17" t="n">
         <v>3.96</v>
       </c>
-      <c r="D44" s="16" t="n">
+      <c r="D44" s="17" t="n">
         <f aca="false">44/60*14.58</f>
         <v>10.692</v>
       </c>
-      <c r="E44" s="18" t="n">
+      <c r="E44" s="19" t="n">
         <f aca="false">(C44-D44)/C44</f>
         <v>-1.7</v>
       </c>
-      <c r="F44" s="10"/>
+      <c r="F44" s="11"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="16" t="n">
+      <c r="C45" s="17" t="n">
         <v>19.4</v>
       </c>
-      <c r="D45" s="16" t="n">
+      <c r="D45" s="17" t="n">
         <v>0</v>
       </c>
-      <c r="E45" s="18" t="n">
+      <c r="E45" s="19" t="n">
         <f aca="false">(C45-D45)/C45</f>
         <v>1</v>
       </c>
-      <c r="F45" s="10"/>
+      <c r="F45" s="11"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="16" t="n">
+      <c r="C46" s="17" t="n">
         <v>5.5</v>
       </c>
-      <c r="D46" s="16" t="n">
+      <c r="D46" s="17" t="n">
         <f aca="false">20/60*14.58</f>
         <v>4.86</v>
       </c>
-      <c r="E46" s="17" t="n">
+      <c r="E46" s="18" t="n">
         <f aca="false">(C46-D46)/C46</f>
         <v>0.116363636363636</v>
       </c>
-      <c r="F46" s="10"/>
+      <c r="F46" s="11"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="16" t="n">
+      <c r="C47" s="17" t="n">
         <v>29</v>
       </c>
-      <c r="D47" s="16" t="n">
+      <c r="D47" s="17" t="n">
         <v>0</v>
       </c>
-      <c r="E47" s="18" t="n">
+      <c r="E47" s="19" t="n">
         <f aca="false">(C47-D47)/C47</f>
         <v>1</v>
       </c>
-      <c r="F47" s="10"/>
+      <c r="F47" s="11"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="16" t="n">
+      <c r="C48" s="17" t="n">
         <v>22.5</v>
       </c>
-      <c r="D48" s="16" t="n">
+      <c r="D48" s="17" t="n">
         <f aca="false">19/60*7.29</f>
         <v>2.3085</v>
       </c>
-      <c r="E48" s="17" t="n">
+      <c r="E48" s="18" t="n">
         <f aca="false">(C48-D48)/C48</f>
         <v>0.8974</v>
       </c>
-      <c r="F48" s="15"/>
+      <c r="F48" s="16"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F49" s="15"/>
+      <c r="F49" s="16"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F50" s="15"/>
+      <c r="F50" s="16"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F51" s="15"/>
+      <c r="F51" s="16"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F52" s="15"/>
+      <c r="F52" s="16"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F53" s="15"/>
+      <c r="F53" s="16"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F54" s="15"/>
+      <c r="F54" s="16"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="F55" s="15"/>
+      <c r="F55" s="16"/>
     </row>
     <row r="56" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="2" t="n">
+      <c r="B56" s="3" t="n">
         <v>42388</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C56" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D56" s="13" t="s">
+      <c r="D56" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E56" s="14" t="s">
+      <c r="E56" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F56" s="15"/>
+      <c r="F56" s="16"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C57" s="16" t="n">
+      <c r="C57" s="17" t="n">
         <v>22.33</v>
       </c>
-      <c r="D57" s="16" t="n">
+      <c r="D57" s="17" t="n">
         <f aca="false">155/60*14.58</f>
         <v>37.665</v>
       </c>
-      <c r="E57" s="17" t="n">
+      <c r="E57" s="18" t="n">
         <f aca="false">(C57-D57)/C57</f>
         <v>-0.686744290192566</v>
       </c>
-      <c r="F57" s="10"/>
+      <c r="F57" s="11"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C58" s="16" t="n">
+      <c r="C58" s="17" t="n">
         <v>3.96</v>
       </c>
-      <c r="D58" s="16" t="n">
+      <c r="D58" s="17" t="n">
         <f aca="false">32/60*14.58</f>
         <v>7.776</v>
       </c>
-      <c r="E58" s="18" t="n">
+      <c r="E58" s="19" t="n">
         <f aca="false">(C58-D58)/C58</f>
         <v>-0.963636363636364</v>
       </c>
-      <c r="F58" s="10"/>
+      <c r="F58" s="11"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C59" s="16" t="n">
+      <c r="C59" s="17" t="n">
         <v>19.4</v>
       </c>
-      <c r="D59" s="16" t="n">
+      <c r="D59" s="17" t="n">
         <v>0</v>
       </c>
-      <c r="E59" s="18" t="n">
+      <c r="E59" s="19" t="n">
         <f aca="false">(C59-D59)/C59</f>
         <v>1</v>
       </c>
-      <c r="F59" s="10"/>
+      <c r="F59" s="11"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C60" s="16" t="n">
+      <c r="C60" s="17" t="n">
         <v>5.5</v>
       </c>
-      <c r="D60" s="16" t="n">
+      <c r="D60" s="17" t="n">
         <f aca="false">21/60*14.58</f>
         <v>5.103</v>
       </c>
-      <c r="E60" s="17" t="n">
+      <c r="E60" s="18" t="n">
         <f aca="false">(C60-D60)/C60</f>
         <v>0.0721818181818182</v>
       </c>
-      <c r="F60" s="10"/>
+      <c r="F60" s="11"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C61" s="16" t="n">
+      <c r="C61" s="17" t="n">
         <v>29</v>
       </c>
-      <c r="D61" s="16" t="n">
+      <c r="D61" s="17" t="n">
         <v>0</v>
       </c>
-      <c r="E61" s="18" t="n">
+      <c r="E61" s="19" t="n">
         <f aca="false">(C61-D61)/C61</f>
         <v>1</v>
       </c>
-      <c r="F61" s="10"/>
+      <c r="F61" s="11"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C62" s="16" t="n">
+      <c r="C62" s="17" t="n">
         <v>22.5</v>
       </c>
-      <c r="D62" s="16" t="n">
+      <c r="D62" s="17" t="n">
         <f aca="false">10/60*7.29</f>
         <v>1.215</v>
       </c>
-      <c r="E62" s="17" t="n">
+      <c r="E62" s="18" t="n">
         <f aca="false">(C62-D62)/C62</f>
         <v>0.946</v>
       </c>
-      <c r="F62" s="10"/>
+      <c r="F62" s="11"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F63" s="15"/>
+      <c r="F63" s="16"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F64" s="15"/>
+      <c r="F64" s="16"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F65" s="15"/>
+      <c r="F65" s="16"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F66" s="15"/>
+      <c r="F66" s="16"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F67" s="15"/>
+      <c r="F67" s="16"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F68" s="15"/>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="0" t="s">
+      <c r="F68" s="16"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F69" s="15"/>
+      <c r="F69" s="16"/>
     </row>
     <row r="70" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="2" t="n">
+      <c r="B70" s="3" t="n">
         <v>42388</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C70" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D70" s="13" t="s">
+      <c r="D70" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E70" s="14" t="s">
+      <c r="E70" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F70" s="15"/>
+      <c r="F70" s="16"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C71" s="16" t="n">
+      <c r="C71" s="17" t="n">
         <v>22.33</v>
       </c>
-      <c r="D71" s="16" t="n">
+      <c r="D71" s="17" t="n">
         <f aca="false">465/60*14.58</f>
         <v>112.995</v>
       </c>
-      <c r="E71" s="17" t="n">
+      <c r="E71" s="18" t="n">
         <f aca="false">(C71-D71)/C71</f>
         <v>-4.0602328705777</v>
       </c>
-      <c r="F71" s="10"/>
+      <c r="F71" s="11"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C72" s="16" t="n">
+      <c r="C72" s="17" t="n">
         <v>3.96</v>
       </c>
-      <c r="D72" s="16" t="n">
+      <c r="D72" s="17" t="n">
         <f aca="false">6/60*14.58</f>
         <v>1.458</v>
       </c>
-      <c r="E72" s="18" t="n">
+      <c r="E72" s="19" t="n">
         <f aca="false">(C72-D72)/C72</f>
         <v>0.631818181818182</v>
       </c>
-      <c r="F72" s="10"/>
+      <c r="F72" s="11"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C73" s="16" t="n">
+      <c r="C73" s="17" t="n">
         <v>19.4</v>
       </c>
-      <c r="D73" s="16" t="n">
+      <c r="D73" s="17" t="n">
         <f aca="false">135/60*14.58</f>
         <v>32.805</v>
       </c>
-      <c r="E73" s="18" t="n">
+      <c r="E73" s="19" t="n">
         <f aca="false">(C73-D73)/C73</f>
         <v>-0.690979381443299</v>
       </c>
-      <c r="F73" s="10"/>
+      <c r="F73" s="11"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C74" s="16" t="n">
+      <c r="C74" s="17" t="n">
         <v>5.5</v>
       </c>
-      <c r="D74" s="16" t="n">
+      <c r="D74" s="17" t="n">
         <f aca="false">14/60*14.58</f>
         <v>3.402</v>
       </c>
-      <c r="E74" s="17" t="n">
+      <c r="E74" s="18" t="n">
         <f aca="false">(C74-D74)/C74</f>
         <v>0.381454545454545</v>
       </c>
-      <c r="F74" s="10"/>
+      <c r="F74" s="11"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C75" s="16" t="n">
+      <c r="C75" s="17" t="n">
         <v>29</v>
       </c>
-      <c r="D75" s="16" t="n">
+      <c r="D75" s="17" t="n">
         <v>0</v>
       </c>
-      <c r="E75" s="18" t="n">
+      <c r="E75" s="19" t="n">
         <f aca="false">(C75-D75)/C75</f>
         <v>1</v>
       </c>
-      <c r="F75" s="10"/>
+      <c r="F75" s="11"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C76" s="16" t="n">
+      <c r="C76" s="17" t="n">
         <v>22.5</v>
       </c>
-      <c r="D76" s="16" t="n">
+      <c r="D76" s="17" t="n">
         <f aca="false">35/60*7.29</f>
         <v>4.2525</v>
       </c>
-      <c r="E76" s="17" t="n">
+      <c r="E76" s="18" t="n">
         <f aca="false">(C76-D76)/C76</f>
         <v>0.811</v>
       </c>
-      <c r="F76" s="10"/>
+      <c r="F76" s="11"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F77" s="15"/>
+      <c r="F77" s="16"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F78" s="15"/>
+      <c r="F78" s="16"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F79" s="15"/>
+      <c r="F79" s="16"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F80" s="15"/>
+      <c r="F80" s="16"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F81" s="15"/>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="0" t="s">
+      <c r="F81" s="16"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F82" s="15"/>
+      <c r="F82" s="16"/>
     </row>
     <row r="83" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="2" t="n">
+      <c r="B83" s="3" t="n">
         <v>42388</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="C83" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D83" s="13" t="s">
+      <c r="D83" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E83" s="14" t="s">
+      <c r="E83" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F83" s="15"/>
+      <c r="F83" s="16"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C84" s="16" t="n">
+      <c r="C84" s="17" t="n">
         <v>22.33</v>
       </c>
-      <c r="D84" s="16" t="n">
+      <c r="D84" s="17" t="n">
         <f aca="false">112/60*14.58</f>
         <v>27.216</v>
       </c>
-      <c r="E84" s="17" t="n">
+      <c r="E84" s="18" t="n">
         <f aca="false">(C84-D84)/C84</f>
         <v>-0.218808777429467</v>
       </c>
-      <c r="F84" s="10"/>
+      <c r="F84" s="11"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C85" s="16" t="n">
+      <c r="C85" s="17" t="n">
         <v>3.96</v>
       </c>
-      <c r="D85" s="16" t="n">
+      <c r="D85" s="17" t="n">
         <f aca="false">76/60*14.58</f>
         <v>18.468</v>
       </c>
-      <c r="E85" s="18" t="n">
+      <c r="E85" s="19" t="n">
         <f aca="false">(C85-D85)/C85</f>
         <v>-3.66363636363636</v>
       </c>
-      <c r="F85" s="10"/>
+      <c r="F85" s="11"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C86" s="16" t="n">
+      <c r="C86" s="17" t="n">
         <v>19.4</v>
       </c>
-      <c r="D86" s="16" t="n">
+      <c r="D86" s="17" t="n">
         <f aca="false">89/60*14.58</f>
         <v>21.627</v>
       </c>
-      <c r="E86" s="18" t="n">
+      <c r="E86" s="19" t="n">
         <f aca="false">(C86-D86)/C86</f>
         <v>-0.11479381443299</v>
       </c>
-      <c r="F86" s="10"/>
+      <c r="F86" s="11"/>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C87" s="16" t="n">
+      <c r="C87" s="17" t="n">
         <v>5.5</v>
       </c>
-      <c r="D87" s="16" t="n">
+      <c r="D87" s="17" t="n">
         <f aca="false">22/60*14.58</f>
         <v>5.346</v>
       </c>
-      <c r="E87" s="17" t="n">
+      <c r="E87" s="18" t="n">
         <f aca="false">(C87-D87)/C87</f>
         <v>0.028</v>
       </c>
-      <c r="F87" s="10"/>
+      <c r="F87" s="11"/>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="7" t="s">
+      <c r="B88" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C88" s="16" t="n">
+      <c r="C88" s="17" t="n">
         <v>29</v>
       </c>
-      <c r="D88" s="16" t="n">
+      <c r="D88" s="17" t="n">
         <v>0</v>
       </c>
-      <c r="E88" s="18" t="n">
+      <c r="E88" s="19" t="n">
         <f aca="false">(C88-D88)/C88</f>
         <v>1</v>
       </c>
-      <c r="F88" s="10"/>
+      <c r="F88" s="11"/>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C89" s="16" t="n">
+      <c r="C89" s="17" t="n">
         <v>22.5</v>
       </c>
-      <c r="D89" s="16" t="n">
+      <c r="D89" s="17" t="n">
         <f aca="false">13/60*7.29</f>
         <v>1.5795</v>
       </c>
-      <c r="E89" s="17" t="n">
+      <c r="E89" s="18" t="n">
         <f aca="false">(C89-D89)/C89</f>
         <v>0.9298</v>
       </c>
-      <c r="F89" s="10"/>
+      <c r="F89" s="11"/>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F90" s="15"/>
+      <c r="F90" s="16"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F91" s="15"/>
+      <c r="F91" s="16"/>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F92" s="15"/>
+      <c r="F92" s="16"/>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F93" s="15"/>
+      <c r="F93" s="16"/>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F94" s="15"/>
+      <c r="F94" s="16"/>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F95" s="15"/>
+      <c r="F95" s="16"/>
     </row>
     <row r="96" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="2" t="n">
+      <c r="B96" s="3" t="n">
         <v>42388</v>
       </c>
-      <c r="C96" s="13" t="s">
+      <c r="C96" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D96" s="13" t="s">
+      <c r="D96" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E96" s="14" t="s">
+      <c r="E96" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F96" s="15"/>
+      <c r="F96" s="16"/>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="4" t="s">
+      <c r="B97" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C97" s="16" t="n">
+      <c r="C97" s="17" t="n">
         <v>22.33</v>
       </c>
-      <c r="D97" s="16" t="n">
+      <c r="D97" s="17" t="n">
         <f aca="false">5/60*14.58</f>
         <v>1.215</v>
       </c>
-      <c r="E97" s="17" t="n">
+      <c r="E97" s="18" t="n">
         <f aca="false">(C97-D97)/C97</f>
         <v>0.945588893864756</v>
       </c>
-      <c r="F97" s="10"/>
+      <c r="F97" s="11"/>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="7" t="s">
+      <c r="B98" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C98" s="16" t="n">
+      <c r="C98" s="17" t="n">
         <v>3.96</v>
       </c>
-      <c r="D98" s="16" t="n">
+      <c r="D98" s="17" t="n">
         <f aca="false">5/60*14.58</f>
         <v>1.215</v>
       </c>
-      <c r="E98" s="18" t="n">
+      <c r="E98" s="19" t="n">
         <f aca="false">(C98-D98)/C98</f>
         <v>0.693181818181818</v>
       </c>
-      <c r="F98" s="10"/>
+      <c r="F98" s="11"/>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="7" t="s">
+      <c r="B99" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C99" s="16" t="n">
+      <c r="C99" s="17" t="n">
         <v>19.4</v>
       </c>
-      <c r="D99" s="16" t="n">
+      <c r="D99" s="17" t="n">
         <v>0</v>
       </c>
-      <c r="E99" s="18" t="n">
+      <c r="E99" s="19" t="n">
         <f aca="false">(C99-D99)/C99</f>
         <v>1</v>
       </c>
-      <c r="F99" s="10"/>
+      <c r="F99" s="11"/>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="7" t="s">
+      <c r="B100" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C100" s="16" t="n">
+      <c r="C100" s="17" t="n">
         <v>5.5</v>
       </c>
-      <c r="D100" s="16" t="n">
+      <c r="D100" s="17" t="n">
         <f aca="false">32/60*14.58</f>
         <v>7.776</v>
       </c>
-      <c r="E100" s="17" t="n">
+      <c r="E100" s="18" t="n">
         <f aca="false">(C100-D100)/C100</f>
         <v>-0.413818181818182</v>
       </c>
-      <c r="F100" s="10"/>
+      <c r="F100" s="11"/>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="7" t="s">
+      <c r="B101" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C101" s="16" t="n">
+      <c r="C101" s="17" t="n">
         <v>29</v>
       </c>
-      <c r="D101" s="16" t="n">
+      <c r="D101" s="17" t="n">
         <v>0</v>
       </c>
-      <c r="E101" s="18" t="n">
+      <c r="E101" s="19" t="n">
         <f aca="false">(C101-D101)/C101</f>
         <v>1</v>
       </c>
-      <c r="F101" s="10"/>
+      <c r="F101" s="11"/>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="7" t="s">
+      <c r="B102" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C102" s="16" t="n">
+      <c r="C102" s="17" t="n">
         <v>22.5</v>
       </c>
-      <c r="D102" s="16" t="n">
+      <c r="D102" s="17" t="n">
         <f aca="false">39/60*7.29</f>
         <v>4.7385</v>
       </c>
-      <c r="E102" s="17" t="n">
+      <c r="E102" s="18" t="n">
         <f aca="false">(C102-D102)/C102</f>
         <v>0.7894</v>
       </c>
-      <c r="F102" s="10"/>
+      <c r="F102" s="11"/>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F103" s="15"/>
+      <c r="F103" s="16"/>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F104" s="15"/>
+      <c r="F104" s="16"/>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F105" s="15"/>
+      <c r="F105" s="16"/>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F106" s="15"/>
+      <c r="F106" s="16"/>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F107" s="15"/>
+      <c r="F107" s="16"/>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F108" s="15"/>
+      <c r="F108" s="16"/>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F109" s="15"/>
+      <c r="F109" s="16"/>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F110" s="15"/>
+      <c r="F110" s="16"/>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F111" s="15"/>
-    </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="0" t="s">
+      <c r="F111" s="16"/>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F112" s="15"/>
+      <c r="F112" s="16"/>
     </row>
     <row r="113" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="2" t="n">
+      <c r="B113" s="3" t="n">
         <v>42388</v>
       </c>
-      <c r="C113" s="13" t="s">
+      <c r="C113" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D113" s="13" t="s">
+      <c r="D113" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E113" s="14" t="s">
+      <c r="E113" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F113" s="15"/>
+      <c r="F113" s="16"/>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C114" s="16" t="n">
+      <c r="C114" s="17" t="n">
         <v>22.33</v>
       </c>
-      <c r="D114" s="16" t="n">
+      <c r="D114" s="17" t="n">
         <f aca="false">110/60*14.58</f>
         <v>26.73</v>
       </c>
-      <c r="E114" s="17" t="n">
+      <c r="E114" s="18" t="n">
         <f aca="false">(C114-D114)/C114</f>
         <v>-0.19704433497537</v>
       </c>
-      <c r="F114" s="10"/>
+      <c r="F114" s="11"/>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="7" t="s">
+      <c r="B115" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C115" s="16" t="n">
+      <c r="C115" s="17" t="n">
         <v>3.96</v>
       </c>
-      <c r="D115" s="16" t="n">
+      <c r="D115" s="17" t="n">
         <f aca="false">117/60*14.58</f>
         <v>28.431</v>
       </c>
-      <c r="E115" s="18" t="n">
+      <c r="E115" s="19" t="n">
         <f aca="false">(C115-D115)/C115</f>
         <v>-6.17954545454546</v>
       </c>
-      <c r="F115" s="10"/>
+      <c r="F115" s="11"/>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="7" t="s">
+      <c r="B116" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C116" s="16" t="n">
+      <c r="C116" s="17" t="n">
         <v>19.4</v>
       </c>
-      <c r="D116" s="16" t="n">
+      <c r="D116" s="17" t="n">
         <f aca="false">410/60*14.58</f>
         <v>99.63</v>
       </c>
-      <c r="E116" s="18" t="n">
+      <c r="E116" s="19" t="n">
         <f aca="false">(C116-D116)/C116</f>
         <v>-4.13556701030928</v>
       </c>
-      <c r="F116" s="10"/>
+      <c r="F116" s="11"/>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="7" t="s">
+      <c r="B117" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C117" s="16" t="n">
+      <c r="C117" s="17" t="n">
         <v>5.5</v>
       </c>
-      <c r="D117" s="16" t="n">
+      <c r="D117" s="17" t="n">
         <f aca="false">3/60*14.58</f>
         <v>0.729</v>
       </c>
-      <c r="E117" s="17" t="n">
+      <c r="E117" s="18" t="n">
         <f aca="false">(C117-D117)/C117</f>
         <v>0.867454545454545</v>
       </c>
-      <c r="F117" s="10"/>
+      <c r="F117" s="11"/>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="7" t="s">
+      <c r="B118" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C118" s="16" t="n">
+      <c r="C118" s="17" t="n">
         <v>29</v>
       </c>
-      <c r="D118" s="16" t="n">
+      <c r="D118" s="17" t="n">
         <v>0</v>
       </c>
-      <c r="E118" s="18" t="n">
+      <c r="E118" s="19" t="n">
         <f aca="false">(C118-D118)/C118</f>
         <v>1</v>
       </c>
-      <c r="F118" s="10"/>
+      <c r="F118" s="11"/>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="7" t="s">
+      <c r="B119" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C119" s="16" t="n">
+      <c r="C119" s="17" t="n">
         <v>22.5</v>
       </c>
-      <c r="D119" s="16" t="n">
+      <c r="D119" s="17" t="n">
         <f aca="false">30/60*7.29</f>
         <v>3.645</v>
       </c>
-      <c r="E119" s="17" t="n">
+      <c r="E119" s="18" t="n">
         <f aca="false">(C119-D119)/C119</f>
         <v>0.838</v>
       </c>
-      <c r="F119" s="10"/>
+      <c r="F119" s="11"/>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F120" s="15"/>
+      <c r="F120" s="16"/>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F121" s="15"/>
+      <c r="F121" s="16"/>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F122" s="15"/>
+      <c r="F122" s="16"/>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F123" s="15"/>
+      <c r="F123" s="16"/>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F124" s="15"/>
-    </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="0" t="s">
+      <c r="F124" s="16"/>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B125" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F125" s="15"/>
+      <c r="F125" s="16"/>
     </row>
     <row r="126" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="2" t="n">
+      <c r="B126" s="3" t="n">
         <v>42388</v>
       </c>
-      <c r="C126" s="13" t="s">
+      <c r="C126" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D126" s="13" t="s">
+      <c r="D126" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E126" s="14" t="s">
+      <c r="E126" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F126" s="15"/>
+      <c r="F126" s="16"/>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="4" t="s">
+      <c r="B127" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C127" s="16" t="n">
+      <c r="C127" s="17" t="n">
         <v>22.33</v>
       </c>
-      <c r="D127" s="16" t="n">
+      <c r="D127" s="17" t="n">
         <f aca="false">153/60*14.58</f>
         <v>37.179</v>
       </c>
-      <c r="E127" s="17" t="n">
+      <c r="E127" s="18" t="n">
         <f aca="false">(C127-D127)/C127</f>
         <v>-0.664979847738468</v>
       </c>
-      <c r="F127" s="10"/>
+      <c r="F127" s="11"/>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="7" t="s">
+      <c r="B128" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C128" s="16" t="n">
+      <c r="C128" s="17" t="n">
         <v>3.96</v>
       </c>
-      <c r="D128" s="16" t="n">
+      <c r="D128" s="17" t="n">
         <f aca="false">57/60*14.58</f>
         <v>13.851</v>
       </c>
-      <c r="E128" s="18" t="n">
+      <c r="E128" s="19" t="n">
         <f aca="false">(C128-D128)/C128</f>
         <v>-2.49772727272727</v>
       </c>
-      <c r="F128" s="10"/>
+      <c r="F128" s="11"/>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="7" t="s">
+      <c r="B129" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C129" s="16" t="n">
+      <c r="C129" s="17" t="n">
         <v>19.4</v>
       </c>
-      <c r="D129" s="16" t="n">
+      <c r="D129" s="17" t="n">
         <v>0</v>
       </c>
-      <c r="E129" s="18" t="n">
+      <c r="E129" s="19" t="n">
         <f aca="false">(C129-D129)/C129</f>
         <v>1</v>
       </c>
-      <c r="F129" s="10"/>
+      <c r="F129" s="11"/>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="7" t="s">
+      <c r="B130" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C130" s="16" t="n">
+      <c r="C130" s="17" t="n">
         <v>5.5</v>
       </c>
-      <c r="D130" s="16" t="n">
+      <c r="D130" s="17" t="n">
         <f aca="false">37/60*14.58</f>
         <v>8.991</v>
       </c>
-      <c r="E130" s="17" t="n">
+      <c r="E130" s="18" t="n">
         <f aca="false">(C130-D130)/C130</f>
         <v>-0.634727272727273</v>
       </c>
-      <c r="F130" s="10"/>
+      <c r="F130" s="11"/>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="7" t="s">
+      <c r="B131" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C131" s="16" t="n">
+      <c r="C131" s="17" t="n">
         <v>29</v>
       </c>
-      <c r="D131" s="16" t="n">
+      <c r="D131" s="17" t="n">
         <v>0</v>
       </c>
-      <c r="E131" s="18" t="n">
+      <c r="E131" s="19" t="n">
         <f aca="false">(C131-D131)/C131</f>
         <v>1</v>
       </c>
-      <c r="F131" s="10"/>
+      <c r="F131" s="11"/>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="7" t="s">
+      <c r="B132" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C132" s="16" t="n">
+      <c r="C132" s="17" t="n">
         <v>22.5</v>
       </c>
-      <c r="D132" s="16" t="n">
+      <c r="D132" s="17" t="n">
         <f aca="false">15/60*7.29</f>
         <v>1.8225</v>
       </c>
-      <c r="E132" s="17" t="n">
+      <c r="E132" s="18" t="n">
         <f aca="false">(C132-D132)/C132</f>
         <v>0.919</v>
       </c>
-      <c r="F132" s="10"/>
+      <c r="F132" s="11"/>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F133" s="15"/>
+      <c r="F133" s="16"/>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F134" s="15"/>
+      <c r="F134" s="16"/>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F135" s="15"/>
+      <c r="F135" s="16"/>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F136" s="15"/>
+      <c r="F136" s="16"/>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F137" s="15"/>
-    </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="0" t="s">
+      <c r="F137" s="16"/>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B138" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F138" s="15"/>
+      <c r="F138" s="16"/>
     </row>
     <row r="139" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="2" t="n">
+      <c r="B139" s="3" t="n">
         <v>42388</v>
       </c>
-      <c r="C139" s="13" t="s">
+      <c r="C139" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D139" s="13" t="s">
+      <c r="D139" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E139" s="14" t="s">
+      <c r="E139" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F139" s="15"/>
+      <c r="F139" s="16"/>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="4" t="s">
+      <c r="B140" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C140" s="16" t="n">
+      <c r="C140" s="17" t="n">
         <v>22.33</v>
       </c>
-      <c r="D140" s="16" t="n">
+      <c r="D140" s="17" t="n">
         <f aca="false">1/60*14.58</f>
         <v>0.243</v>
       </c>
-      <c r="E140" s="17" t="n">
+      <c r="E140" s="18" t="n">
         <f aca="false">(C140-D140)/C140</f>
         <v>0.989117778772951</v>
       </c>
-      <c r="F140" s="10"/>
+      <c r="F140" s="11"/>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="7" t="s">
+      <c r="B141" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C141" s="16" t="n">
+      <c r="C141" s="17" t="n">
         <v>3.96</v>
       </c>
-      <c r="D141" s="16" t="n">
+      <c r="D141" s="17" t="n">
         <f aca="false">208/60*14.58</f>
         <v>50.544</v>
       </c>
-      <c r="E141" s="18" t="n">
+      <c r="E141" s="19" t="n">
         <f aca="false">(C141-D141)/C141</f>
         <v>-11.7636363636364</v>
       </c>
-      <c r="F141" s="10"/>
+      <c r="F141" s="11"/>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="7" t="s">
+      <c r="B142" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C142" s="16" t="n">
+      <c r="C142" s="17" t="n">
         <v>19.4</v>
       </c>
-      <c r="D142" s="16" t="n">
+      <c r="D142" s="17" t="n">
         <f aca="false">14/60*14.58</f>
         <v>3.402</v>
       </c>
-      <c r="E142" s="18" t="n">
+      <c r="E142" s="19" t="n">
         <f aca="false">(C142-D142)/C142</f>
         <v>0.824639175257732</v>
       </c>
-      <c r="F142" s="10"/>
+      <c r="F142" s="11"/>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B143" s="7" t="s">
+      <c r="B143" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C143" s="16" t="n">
+      <c r="C143" s="17" t="n">
         <v>5.5</v>
       </c>
-      <c r="D143" s="16" t="n">
+      <c r="D143" s="17" t="n">
         <f aca="false">6/60*14.58</f>
         <v>1.458</v>
       </c>
-      <c r="E143" s="17" t="n">
+      <c r="E143" s="18" t="n">
         <f aca="false">(C143-D143)/C143</f>
         <v>0.734909090909091</v>
       </c>
-      <c r="F143" s="10"/>
+      <c r="F143" s="11"/>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B144" s="7" t="s">
+      <c r="B144" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C144" s="16" t="n">
+      <c r="C144" s="17" t="n">
         <v>29</v>
       </c>
-      <c r="D144" s="16" t="n">
+      <c r="D144" s="17" t="n">
         <v>0</v>
       </c>
-      <c r="E144" s="18" t="n">
+      <c r="E144" s="19" t="n">
         <f aca="false">(C144-D144)/C144</f>
         <v>1</v>
       </c>
-      <c r="F144" s="10"/>
+      <c r="F144" s="11"/>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="7" t="s">
+      <c r="B145" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C145" s="16" t="n">
+      <c r="C145" s="17" t="n">
         <v>22.5</v>
       </c>
-      <c r="D145" s="16" t="n">
+      <c r="D145" s="17" t="n">
         <f aca="false">18/60*7.29</f>
         <v>2.187</v>
       </c>
-      <c r="E145" s="17" t="n">
+      <c r="E145" s="18" t="n">
         <f aca="false">(C145-D145)/C145</f>
         <v>0.9028</v>
       </c>
-      <c r="F145" s="10"/>
+      <c r="F145" s="11"/>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F146" s="15"/>
+      <c r="F146" s="16"/>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F147" s="15"/>
+      <c r="F147" s="16"/>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F148" s="15"/>
+      <c r="F148" s="16"/>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F149" s="15"/>
+      <c r="F149" s="16"/>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="F150" s="15"/>
+      <c r="F150" s="16"/>
     </row>
     <row r="151" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="2" t="n">
+      <c r="B151" s="3" t="n">
         <v>42388</v>
       </c>
-      <c r="C151" s="13" t="s">
+      <c r="C151" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D151" s="13" t="s">
+      <c r="D151" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E151" s="14" t="s">
+      <c r="E151" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F151" s="15"/>
+      <c r="F151" s="16"/>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B152" s="4" t="s">
+      <c r="B152" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C152" s="16" t="n">
+      <c r="C152" s="17" t="n">
         <v>22.33</v>
       </c>
-      <c r="D152" s="16" t="n">
+      <c r="D152" s="17" t="n">
         <f aca="false">10/60*14.58</f>
         <v>2.43</v>
       </c>
-      <c r="E152" s="17" t="n">
+      <c r="E152" s="18" t="n">
         <f aca="false">(C152-D152)/C152</f>
         <v>0.891177787729512</v>
       </c>
-      <c r="F152" s="10"/>
+      <c r="F152" s="11"/>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B153" s="7" t="s">
+      <c r="B153" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C153" s="16" t="n">
+      <c r="C153" s="17" t="n">
         <v>3.96</v>
       </c>
-      <c r="D153" s="16" t="n">
+      <c r="D153" s="17" t="n">
         <f aca="false">3/60*14.58</f>
         <v>0.729</v>
       </c>
-      <c r="E153" s="18" t="n">
+      <c r="E153" s="19" t="n">
         <f aca="false">(C153-D153)/C153</f>
         <v>0.815909090909091</v>
       </c>
-      <c r="F153" s="10"/>
+      <c r="F153" s="11"/>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B154" s="7" t="s">
+      <c r="B154" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C154" s="16" t="n">
+      <c r="C154" s="17" t="n">
         <v>19.4</v>
       </c>
-      <c r="D154" s="16" t="n">
+      <c r="D154" s="17" t="n">
         <v>0</v>
       </c>
-      <c r="E154" s="18" t="n">
+      <c r="E154" s="19" t="n">
         <f aca="false">(C154-D154)/C154</f>
         <v>1</v>
       </c>
-      <c r="F154" s="10"/>
+      <c r="F154" s="11"/>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B155" s="7" t="s">
+      <c r="B155" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C155" s="16" t="n">
+      <c r="C155" s="17" t="n">
         <v>5.5</v>
       </c>
-      <c r="D155" s="16" t="n">
+      <c r="D155" s="17" t="n">
         <f aca="false">17/60*14.58</f>
         <v>4.131</v>
       </c>
-      <c r="E155" s="17" t="n">
+      <c r="E155" s="18" t="n">
         <f aca="false">(C155-D155)/C155</f>
         <v>0.248909090909091</v>
       </c>
-      <c r="F155" s="10"/>
+      <c r="F155" s="11"/>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B156" s="7" t="s">
+      <c r="B156" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C156" s="16" t="n">
+      <c r="C156" s="17" t="n">
         <v>29</v>
       </c>
-      <c r="D156" s="16" t="n">
+      <c r="D156" s="17" t="n">
         <v>0</v>
       </c>
-      <c r="E156" s="18" t="n">
+      <c r="E156" s="19" t="n">
         <f aca="false">(C156-D156)/C156</f>
         <v>1</v>
       </c>
-      <c r="F156" s="10"/>
+      <c r="F156" s="11"/>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B157" s="7" t="s">
+      <c r="B157" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C157" s="16" t="n">
+      <c r="C157" s="17" t="n">
         <v>22.5</v>
       </c>
-      <c r="D157" s="16" t="n">
+      <c r="D157" s="17" t="n">
         <f aca="false">17/60*7.29</f>
         <v>2.0655</v>
       </c>
-      <c r="E157" s="17" t="n">
+      <c r="E157" s="18" t="n">
         <f aca="false">(C157-D157)/C157</f>
         <v>0.9082</v>
       </c>
-      <c r="F157" s="10"/>
+      <c r="F157" s="11"/>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F158" s="15"/>
+      <c r="F158" s="16"/>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F159" s="15"/>
+      <c r="F159" s="16"/>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F160" s="15"/>
+      <c r="F160" s="16"/>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F161" s="15"/>
+      <c r="F161" s="16"/>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F162" s="15"/>
-    </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B163" s="0" t="s">
+      <c r="F162" s="16"/>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B163" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F163" s="15"/>
+      <c r="F163" s="16"/>
     </row>
     <row r="164" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B164" s="2" t="n">
+      <c r="B164" s="3" t="n">
         <v>42388</v>
       </c>
-      <c r="C164" s="13" t="s">
+      <c r="C164" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D164" s="13" t="s">
+      <c r="D164" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E164" s="14" t="s">
+      <c r="E164" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F164" s="15"/>
+      <c r="F164" s="16"/>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B165" s="4" t="s">
+      <c r="B165" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C165" s="16" t="n">
+      <c r="C165" s="17" t="n">
         <v>22.33</v>
       </c>
-      <c r="D165" s="16" t="n">
+      <c r="D165" s="17" t="n">
         <f aca="false">605/60*14.58</f>
         <v>147.015</v>
       </c>
-      <c r="E165" s="17" t="n">
+      <c r="E165" s="18" t="n">
         <f aca="false">(C165-D165)/C165</f>
         <v>-5.58374384236453</v>
       </c>
-      <c r="F165" s="10"/>
+      <c r="F165" s="11"/>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B166" s="7" t="s">
+      <c r="B166" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C166" s="16" t="n">
+      <c r="C166" s="17" t="n">
         <v>3.96</v>
       </c>
-      <c r="D166" s="16" t="n">
+      <c r="D166" s="17" t="n">
         <f aca="false">4/60*14.58</f>
         <v>0.972</v>
       </c>
-      <c r="E166" s="18" t="n">
+      <c r="E166" s="19" t="n">
         <f aca="false">(C166-D166)/C166</f>
         <v>0.754545454545455</v>
       </c>
-      <c r="F166" s="10"/>
+      <c r="F166" s="11"/>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B167" s="7" t="s">
+      <c r="B167" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C167" s="16" t="n">
+      <c r="C167" s="17" t="n">
         <v>19.4</v>
       </c>
-      <c r="D167" s="16" t="n">
+      <c r="D167" s="17" t="n">
         <f aca="false">79/60*14.58</f>
         <v>19.197</v>
       </c>
-      <c r="E167" s="18" t="n">
+      <c r="E167" s="19" t="n">
         <f aca="false">(C167-D167)/C167</f>
         <v>0.0104639175257732</v>
       </c>
-      <c r="F167" s="10"/>
+      <c r="F167" s="11"/>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B168" s="7" t="s">
+      <c r="B168" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C168" s="16" t="n">
+      <c r="C168" s="17" t="n">
         <v>5.5</v>
       </c>
-      <c r="D168" s="16" t="n">
+      <c r="D168" s="17" t="n">
         <f aca="false">12/60*14.58</f>
         <v>2.916</v>
       </c>
-      <c r="E168" s="17" t="n">
+      <c r="E168" s="18" t="n">
         <f aca="false">(C168-D168)/C168</f>
         <v>0.469818181818182</v>
       </c>
-      <c r="F168" s="10"/>
+      <c r="F168" s="11"/>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B169" s="7" t="s">
+      <c r="B169" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C169" s="16" t="n">
+      <c r="C169" s="17" t="n">
         <v>29</v>
       </c>
-      <c r="D169" s="16" t="n">
+      <c r="D169" s="17" t="n">
         <v>0</v>
       </c>
-      <c r="E169" s="18" t="n">
+      <c r="E169" s="19" t="n">
         <f aca="false">(C169-D169)/C169</f>
         <v>1</v>
       </c>
-      <c r="F169" s="10"/>
+      <c r="F169" s="11"/>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B170" s="7" t="s">
+      <c r="B170" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C170" s="16" t="n">
+      <c r="C170" s="17" t="n">
         <v>22.5</v>
       </c>
-      <c r="D170" s="16" t="n">
+      <c r="D170" s="17" t="n">
         <f aca="false">18/60*7.29</f>
         <v>2.187</v>
       </c>
-      <c r="E170" s="17" t="n">
+      <c r="E170" s="18" t="n">
         <f aca="false">(C170-D170)/C170</f>
         <v>0.9028</v>
       </c>
-      <c r="F170" s="10"/>
+      <c r="F170" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -12165,446 +12175,446 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D2" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="19" t="s">
+      <c r="D2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="P2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="Q2" s="20" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="20"/>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="22" t="n">
+      <c r="D3" s="23" t="n">
         <v>20160119</v>
       </c>
-      <c r="E3" s="22" t="n">
+      <c r="E3" s="23" t="n">
         <v>20160119</v>
       </c>
-      <c r="F3" s="22" t="n">
+      <c r="F3" s="23" t="n">
         <v>20160119</v>
       </c>
-      <c r="G3" s="22" t="n">
+      <c r="G3" s="23" t="n">
         <v>20160119</v>
       </c>
-      <c r="H3" s="22" t="n">
+      <c r="H3" s="23" t="n">
         <v>20160119</v>
       </c>
-      <c r="I3" s="22" t="n">
+      <c r="I3" s="23" t="n">
         <v>20160119</v>
       </c>
-      <c r="J3" s="22" t="n">
+      <c r="J3" s="23" t="n">
         <v>20160119</v>
       </c>
-      <c r="K3" s="22" t="n">
+      <c r="K3" s="23" t="n">
         <v>20160119</v>
       </c>
-      <c r="L3" s="22" t="n">
+      <c r="L3" s="23" t="n">
         <v>20160119</v>
       </c>
-      <c r="M3" s="22" t="n">
+      <c r="M3" s="23" t="n">
         <v>20160119</v>
       </c>
-      <c r="N3" s="22" t="n">
+      <c r="N3" s="23" t="n">
         <v>20160119</v>
       </c>
-      <c r="O3" s="22" t="n">
+      <c r="O3" s="23" t="n">
         <v>20160119</v>
       </c>
-      <c r="P3" s="22" t="n">
+      <c r="P3" s="23" t="n">
         <v>20160119</v>
       </c>
-      <c r="Q3" s="23"/>
+      <c r="Q3" s="24"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="21" t="s">
+      <c r="B4" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="25" t="e">
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="26" t="e">
         <f aca="false">AVERAGE(D4:P4)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="22" t="n">
+      <c r="B5" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" s="24" t="n">
+      <c r="D5" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="25" t="n">
         <v>0.8571</v>
       </c>
-      <c r="O5" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="25" t="n">
+      <c r="O5" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="26" t="n">
         <f aca="false">AVERAGE(D5:P5)</f>
         <v>0.989007692307692</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="22" t="n">
+      <c r="B6" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="25" t="n">
+      <c r="D6" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="26" t="n">
         <f aca="false">AVERAGE(D6:P6)</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="22" t="n">
+      <c r="B7" s="23" t="n">
         <v>5</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="25" t="n">
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="26" t="n">
         <f aca="false">AVERAGE(D7:P7)</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="22" t="n">
+      <c r="B8" s="23" t="n">
         <v>6</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="24" t="n">
+      <c r="D8" s="25"/>
+      <c r="E8" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="25" t="n">
         <v>0.6667</v>
       </c>
-      <c r="I8" s="24" t="n">
+      <c r="I8" s="25" t="n">
         <v>0.6667</v>
       </c>
-      <c r="J8" s="24" t="n">
+      <c r="J8" s="25" t="n">
         <v>0.6667</v>
       </c>
-      <c r="K8" s="24" t="n">
+      <c r="K8" s="25" t="n">
         <v>0.6667</v>
       </c>
-      <c r="L8" s="24" t="n">
+      <c r="L8" s="25" t="n">
         <v>0.6667</v>
       </c>
-      <c r="M8" s="24" t="n">
+      <c r="M8" s="25" t="n">
         <v>0.6667</v>
       </c>
-      <c r="N8" s="24" t="n">
+      <c r="N8" s="25" t="n">
         <v>0.3333</v>
       </c>
-      <c r="O8" s="24" t="n">
+      <c r="O8" s="25" t="n">
         <v>0.3333</v>
       </c>
-      <c r="P8" s="24" t="n">
+      <c r="P8" s="25" t="n">
         <v>0.3333</v>
       </c>
-      <c r="Q8" s="25" t="n">
+      <c r="Q8" s="26" t="n">
         <f aca="false">AVERAGE(D8:P8)</f>
         <v>0.666675</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="22" t="n">
+      <c r="B9" s="23" t="n">
         <v>7</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="25" t="e">
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="26" t="e">
         <f aca="false">AVERAGE(D9:P9)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Y10" s="26"/>
+      <c r="Y10" s="27"/>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="27" t="n">
+      <c r="D11" s="28" t="n">
         <v>42375</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="Y11" s="26"/>
+      <c r="Y11" s="27"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="28"/>
-      <c r="Y12" s="26"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="29"/>
+      <c r="Y12" s="27"/>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="21" t="s">
+      <c r="B13" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="25" t="n">
+      <c r="D13" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="26" t="n">
         <f aca="false">AVERAGE(D13:P13)</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="22" t="n">
+      <c r="B14" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="25" t="n">
+      <c r="D14" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="26" t="n">
         <f aca="false">AVERAGE(D14:P14)</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="22" t="n">
+      <c r="B15" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="25" t="e">
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="26" t="e">
         <f aca="false">AVERAGE(D15:P15)</f>
         <v>#DIV/0!</v>
       </c>
@@ -12674,462 +12684,462 @@
       <c r="D2" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="19" t="s">
+      <c r="E2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="P2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="Q2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="19" t="s">
+      <c r="R2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="21"/>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22" t="n">
+      <c r="D3" s="22"/>
+      <c r="E3" s="23" t="n">
         <v>20160119</v>
       </c>
-      <c r="F3" s="22" t="n">
+      <c r="F3" s="23" t="n">
         <v>20160119</v>
       </c>
-      <c r="G3" s="22" t="n">
+      <c r="G3" s="23" t="n">
         <v>20160119</v>
       </c>
-      <c r="H3" s="22" t="n">
+      <c r="H3" s="23" t="n">
         <v>20160119</v>
       </c>
-      <c r="I3" s="22" t="n">
+      <c r="I3" s="23" t="n">
         <v>20160119</v>
       </c>
-      <c r="J3" s="22" t="n">
+      <c r="J3" s="23" t="n">
         <v>20160119</v>
       </c>
-      <c r="K3" s="22" t="n">
+      <c r="K3" s="23" t="n">
         <v>20160119</v>
       </c>
-      <c r="L3" s="22" t="n">
+      <c r="L3" s="23" t="n">
         <v>20160119</v>
       </c>
-      <c r="M3" s="22" t="n">
+      <c r="M3" s="23" t="n">
         <v>20160119</v>
       </c>
-      <c r="N3" s="22" t="n">
+      <c r="N3" s="23" t="n">
         <v>20160119</v>
       </c>
-      <c r="O3" s="22" t="n">
+      <c r="O3" s="23" t="n">
         <v>20160119</v>
       </c>
-      <c r="P3" s="22" t="n">
+      <c r="P3" s="23" t="n">
         <v>20160119</v>
       </c>
-      <c r="Q3" s="22" t="n">
+      <c r="Q3" s="23" t="n">
         <v>20160119</v>
       </c>
-      <c r="R3" s="23"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="21" t="s">
+      <c r="B4" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="29" t="n">
+      <c r="D4" s="22"/>
+      <c r="E4" s="30" t="n">
         <v>0.8235</v>
       </c>
-      <c r="F4" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="29" t="n">
+      <c r="F4" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="30" t="n">
         <v>0.9412</v>
       </c>
-      <c r="M4" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="29" t="n">
+      <c r="M4" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="30" t="n">
         <v>0.9412</v>
       </c>
-      <c r="Q4" s="29" t="n">
+      <c r="Q4" s="30" t="n">
         <v>0.9412</v>
       </c>
-      <c r="R4" s="25" t="n">
+      <c r="R4" s="26" t="n">
         <f aca="false">AVERAGE(E4:Q4)</f>
         <v>0.972853846153846</v>
       </c>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="21" t="n">
+      <c r="B5" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" s="25" t="n">
+      <c r="D5" s="22"/>
+      <c r="E5" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="26" t="n">
         <f aca="false">AVERAGE(E5:Q5)</f>
         <v>1</v>
       </c>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="21" t="n">
+      <c r="B6" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="25" t="e">
+      <c r="D6" s="22"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="26" t="e">
         <f aca="false">AVERAGE(E6:Q6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="21" t="n">
+      <c r="B7" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="25" t="n">
+      <c r="D7" s="22"/>
+      <c r="E7" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="26" t="n">
         <f aca="false">AVERAGE(E7:Q7)</f>
         <v>1</v>
       </c>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="21" t="n">
+      <c r="B8" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="25" t="n">
+      <c r="D8" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="26" t="n">
         <f aca="false">AVERAGE(D8:Q8)</f>
         <v>1</v>
       </c>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="27" t="n">
+      <c r="D10" s="20"/>
+      <c r="E10" s="28" t="n">
         <v>42375</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19" t="s">
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="21" t="s">
+      <c r="B12" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="25" t="n">
+      <c r="D12" s="22"/>
+      <c r="E12" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="26" t="n">
         <f aca="false">AVERAGE(E12:Q12)</f>
         <v>1</v>
       </c>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="21" t="n">
+      <c r="B13" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="24" t="n">
+      <c r="D13" s="22"/>
+      <c r="E13" s="25" t="n">
         <v>0.8571</v>
       </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="25" t="n">
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="26" t="n">
         <f aca="false">AVERAGE(E13:Q13)</f>
         <v>0.8571</v>
       </c>
-      <c r="S13" s="32"/>
-      <c r="T13" s="33"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="34"/>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="21" t="n">
+      <c r="B14" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="25" t="n">
+      <c r="D14" s="22"/>
+      <c r="E14" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="26" t="n">
         <f aca="false">AVERAGE(E14:Q14)</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
     </row>
     <row r="33" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -13202,238 +13212,238 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D2" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="19" t="s">
+      <c r="D2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="P2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="Q2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="21"/>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="22" t="n">
+      <c r="D3" s="23" t="n">
         <v>20160119</v>
       </c>
-      <c r="E3" s="22" t="n">
+      <c r="E3" s="23" t="n">
         <v>20160119</v>
       </c>
-      <c r="F3" s="22" t="n">
+      <c r="F3" s="23" t="n">
         <v>20160119</v>
       </c>
-      <c r="G3" s="22" t="n">
+      <c r="G3" s="23" t="n">
         <v>20160119</v>
       </c>
-      <c r="H3" s="22" t="n">
+      <c r="H3" s="23" t="n">
         <v>20160119</v>
       </c>
-      <c r="I3" s="22" t="n">
+      <c r="I3" s="23" t="n">
         <v>20160119</v>
       </c>
-      <c r="J3" s="22" t="n">
+      <c r="J3" s="23" t="n">
         <v>20160119</v>
       </c>
-      <c r="K3" s="22" t="n">
+      <c r="K3" s="23" t="n">
         <v>20160119</v>
       </c>
-      <c r="L3" s="22" t="n">
+      <c r="L3" s="23" t="n">
         <v>20160119</v>
       </c>
-      <c r="M3" s="22" t="n">
+      <c r="M3" s="23" t="n">
         <v>20160119</v>
       </c>
-      <c r="N3" s="22" t="n">
+      <c r="N3" s="23" t="n">
         <v>20160119</v>
       </c>
-      <c r="O3" s="22" t="n">
+      <c r="O3" s="23" t="n">
         <v>20160119</v>
       </c>
-      <c r="P3" s="22" t="n">
+      <c r="P3" s="23" t="n">
         <v>20160119</v>
       </c>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="21" t="s">
+      <c r="B4" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="29" t="n">
+      <c r="D4" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="30" t="n">
         <v>0.5</v>
       </c>
-      <c r="F4" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" s="29" t="n">
+      <c r="F4" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="30" t="n">
         <v>0.5</v>
       </c>
-      <c r="O4" s="29" t="n">
+      <c r="O4" s="30" t="n">
         <v>0.5</v>
       </c>
-      <c r="P4" s="29" t="n">
+      <c r="P4" s="30" t="n">
         <v>0.5</v>
       </c>
-      <c r="Q4" s="25" t="n">
+      <c r="Q4" s="26" t="n">
         <f aca="false">AVERAGE(D4:P4)</f>
         <v>0.846153846153846</v>
       </c>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="21" t="n">
+      <c r="B5" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" s="29" t="n">
+      <c r="D5" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="O5" s="29" t="n">
+      <c r="O5" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="P5" s="29" t="n">
+      <c r="P5" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="Q5" s="25" t="n">
+      <c r="Q5" s="26" t="n">
         <f aca="false">AVERAGE(D5:P5)</f>
         <v>0.769230769230769</v>
       </c>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="21" t="n">
+      <c r="B6" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="25" t="e">
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="26" t="e">
         <f aca="false">AVERAGE(D6:P6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="34"/>
+      <c r="C8" s="35"/>
     </row>
     <row r="26" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -13509,231 +13519,231 @@
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
-      <c r="D2" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="19" t="s">
+      <c r="D2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="P2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="Q2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="21"/>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="22" t="n">
+      <c r="D3" s="23" t="n">
         <v>20160119</v>
       </c>
-      <c r="E3" s="22" t="n">
+      <c r="E3" s="23" t="n">
         <v>20160119</v>
       </c>
-      <c r="F3" s="22" t="n">
+      <c r="F3" s="23" t="n">
         <v>20160119</v>
       </c>
-      <c r="G3" s="22" t="n">
+      <c r="G3" s="23" t="n">
         <v>20160119</v>
       </c>
-      <c r="H3" s="22" t="n">
+      <c r="H3" s="23" t="n">
         <v>20160119</v>
       </c>
-      <c r="I3" s="22" t="n">
+      <c r="I3" s="23" t="n">
         <v>20160119</v>
       </c>
-      <c r="J3" s="22" t="n">
+      <c r="J3" s="23" t="n">
         <v>20160119</v>
       </c>
-      <c r="K3" s="22" t="n">
+      <c r="K3" s="23" t="n">
         <v>20160119</v>
       </c>
-      <c r="L3" s="22" t="n">
+      <c r="L3" s="23" t="n">
         <v>20160119</v>
       </c>
-      <c r="M3" s="22" t="n">
+      <c r="M3" s="23" t="n">
         <v>20160119</v>
       </c>
-      <c r="N3" s="22" t="n">
+      <c r="N3" s="23" t="n">
         <v>20160119</v>
       </c>
-      <c r="O3" s="22" t="n">
+      <c r="O3" s="23" t="n">
         <v>20160119</v>
       </c>
-      <c r="P3" s="22" t="n">
+      <c r="P3" s="23" t="n">
         <v>20160119</v>
       </c>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="21" t="s">
+      <c r="B4" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="29" t="n">
+      <c r="D4" s="30" t="n">
         <v>0.67</v>
       </c>
-      <c r="E4" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" s="29" t="n">
+      <c r="E4" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="O4" s="29" t="n">
+      <c r="O4" s="30" t="n">
         <v>0.33</v>
       </c>
-      <c r="P4" s="29" t="n">
+      <c r="P4" s="30" t="n">
         <v>0.33</v>
       </c>
-      <c r="Q4" s="25" t="n">
+      <c r="Q4" s="26" t="n">
         <f aca="false">AVERAGE(D4:P4)</f>
         <v>0.794615384615385</v>
       </c>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="21" t="n">
+      <c r="B5" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="25" t="n">
+      <c r="D5" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="26" t="n">
         <f aca="false">AVERAGE(D5:P5)</f>
         <v>1</v>
       </c>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="21" t="n">
+      <c r="B6" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="25" t="e">
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="26" t="e">
         <f aca="false">AVERAGE(D6:P6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
     </row>
     <row r="26" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -13783,355 +13793,355 @@
   </cols>
   <sheetData>
     <row r="13" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G13" s="35" t="s">
+      <c r="G13" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
     </row>
     <row r="14" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="38" t="s">
+      <c r="F14" s="38"/>
+      <c r="G14" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="H14" s="39" t="s">
+      <c r="H14" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="40" t="s">
+      <c r="I14" s="41" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="42" t="n">
+      <c r="B15" s="43" t="n">
         <v>202000</v>
       </c>
-      <c r="C15" s="42" t="n">
+      <c r="C15" s="43" t="n">
         <f aca="false">SUM(C16:C17)</f>
         <v>130775.3</v>
       </c>
-      <c r="D15" s="43" t="n">
+      <c r="D15" s="44" t="n">
         <f aca="false">(C15 * 100)/B15</f>
         <v>64.7402475247525</v>
       </c>
-      <c r="F15" s="44"/>
-      <c r="G15" s="45" t="n">
+      <c r="F15" s="45"/>
+      <c r="G15" s="46" t="n">
         <v>2424000</v>
       </c>
-      <c r="H15" s="42" t="n">
+      <c r="H15" s="43" t="n">
         <v>130775.3</v>
       </c>
-      <c r="I15" s="46" t="n">
+      <c r="I15" s="47" t="n">
         <f aca="false">(H15 * 100)/G15</f>
         <v>5.39502062706271</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="45" t="n">
+      <c r="B16" s="46" t="n">
         <f aca="false">B15/2</f>
         <v>101000</v>
       </c>
-      <c r="C16" s="47" t="n">
+      <c r="C16" s="48" t="n">
         <v>54818.4</v>
       </c>
-      <c r="D16" s="48" t="n">
+      <c r="D16" s="49" t="n">
         <f aca="false">(C16 * 100)/B16</f>
         <v>54.2756435643564</v>
       </c>
-      <c r="F16" s="44"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="50"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="51"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="45" t="n">
+      <c r="B17" s="46" t="n">
         <f aca="false">B15/2</f>
         <v>101000</v>
       </c>
-      <c r="C17" s="47" t="n">
+      <c r="C17" s="48" t="n">
         <v>75956.9</v>
       </c>
-      <c r="D17" s="51" t="n">
+      <c r="D17" s="52" t="n">
         <f aca="false">(C17 * 100)/B17</f>
         <v>75.2048514851485</v>
       </c>
-      <c r="F17" s="44"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="50"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="51"/>
     </row>
     <row r="33" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="52" t="n">
+      <c r="A33" s="53" t="n">
         <v>42349</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G33" s="35" t="s">
+      <c r="G33" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="42" t="n">
+      <c r="B34" s="43" t="n">
         <v>202000</v>
       </c>
-      <c r="C34" s="42" t="n">
+      <c r="C34" s="43" t="n">
         <f aca="false">SUM(C35:C36)</f>
         <v>32780</v>
       </c>
-      <c r="D34" s="43" t="n">
+      <c r="D34" s="44" t="n">
         <f aca="false">(C34 * 100)/B34</f>
         <v>16.2277227722772</v>
       </c>
-      <c r="G34" s="38" t="s">
+      <c r="G34" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="H34" s="39" t="s">
+      <c r="H34" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="I34" s="40" t="s">
+      <c r="I34" s="41" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="45" t="n">
+      <c r="B35" s="46" t="n">
         <f aca="false">B34/2</f>
         <v>101000</v>
       </c>
-      <c r="C35" s="47" t="n">
+      <c r="C35" s="48" t="n">
         <v>10775</v>
       </c>
-      <c r="D35" s="48" t="n">
+      <c r="D35" s="49" t="n">
         <f aca="false">(C35 * 100)/B35</f>
         <v>10.6683168316832</v>
       </c>
-      <c r="G35" s="45" t="n">
+      <c r="G35" s="46" t="n">
         <v>2424000</v>
       </c>
-      <c r="H35" s="42" t="n">
+      <c r="H35" s="43" t="n">
         <v>2220588.2</v>
       </c>
-      <c r="I35" s="46" t="n">
+      <c r="I35" s="47" t="n">
         <f aca="false">(H35 * 100)/G35</f>
         <v>91.6084240924092</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="45" t="n">
+      <c r="B36" s="46" t="n">
         <f aca="false">B34/2</f>
         <v>101000</v>
       </c>
-      <c r="C36" s="47" t="n">
+      <c r="C36" s="48" t="n">
         <v>22005</v>
       </c>
-      <c r="D36" s="51" t="n">
+      <c r="D36" s="52" t="n">
         <f aca="false">(C36 * 100)/B36</f>
         <v>21.7871287128713</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="36" t="s">
+      <c r="A58" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="D58" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G58" s="35" t="s">
+      <c r="G58" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="H58" s="35"/>
-      <c r="I58" s="35"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="36"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="41" t="s">
+      <c r="A59" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="B59" s="42" t="n">
+      <c r="B59" s="43" t="n">
         <v>202000</v>
       </c>
-      <c r="C59" s="42" t="n">
+      <c r="C59" s="43" t="n">
         <f aca="false">SUM(C60:C61)</f>
         <v>286031.7</v>
       </c>
-      <c r="D59" s="43" t="n">
+      <c r="D59" s="44" t="n">
         <f aca="false">(C59 * 100)/B59</f>
         <v>141.599851485148</v>
       </c>
-      <c r="G59" s="38" t="s">
+      <c r="G59" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="H59" s="39" t="s">
+      <c r="H59" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="I59" s="40" t="s">
+      <c r="I59" s="41" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B60" s="45" t="n">
+      <c r="B60" s="46" t="n">
         <f aca="false">B59/2</f>
         <v>101000</v>
       </c>
-      <c r="C60" s="47" t="n">
+      <c r="C60" s="48" t="n">
         <v>206889.8</v>
       </c>
-      <c r="D60" s="48" t="n">
+      <c r="D60" s="49" t="n">
         <f aca="false">(C60 * 100)/B60</f>
         <v>204.841386138614</v>
       </c>
-      <c r="G60" s="45" t="n">
+      <c r="G60" s="46" t="n">
         <v>2424000</v>
       </c>
-      <c r="H60" s="42" t="n">
+      <c r="H60" s="43" t="n">
         <v>2473839.9</v>
       </c>
-      <c r="I60" s="46" t="n">
+      <c r="I60" s="47" t="n">
         <f aca="false">(H60 * 100)/G60</f>
         <v>102.056101485149</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B61" s="45" t="n">
+      <c r="B61" s="46" t="n">
         <f aca="false">B59/2</f>
         <v>101000</v>
       </c>
-      <c r="C61" s="47" t="n">
+      <c r="C61" s="48" t="n">
         <v>79141.9</v>
       </c>
-      <c r="D61" s="51" t="n">
+      <c r="D61" s="52" t="n">
         <f aca="false">(C61 * 100)/B61</f>
         <v>78.3583168316832</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="52"/>
-      <c r="B79" s="13" t="s">
+      <c r="A79" s="53"/>
+      <c r="B79" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C79" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D79" s="13" t="s">
+      <c r="D79" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G79" s="35" t="s">
+      <c r="G79" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="H79" s="35"/>
-      <c r="I79" s="35"/>
+      <c r="H79" s="36"/>
+      <c r="I79" s="36"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="41" t="s">
+      <c r="A80" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="B80" s="42" t="n">
+      <c r="B80" s="43" t="n">
         <v>202000</v>
       </c>
-      <c r="C80" s="42" t="n">
+      <c r="C80" s="43" t="n">
         <f aca="false">SUM(C81:C82)</f>
         <v>32780</v>
       </c>
-      <c r="D80" s="43" t="n">
+      <c r="D80" s="44" t="n">
         <f aca="false">(C80 * 100)/B80</f>
         <v>16.2277227722772</v>
       </c>
-      <c r="G80" s="53" t="s">
+      <c r="G80" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="H80" s="53" t="s">
+      <c r="H80" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="I80" s="53" t="s">
+      <c r="I80" s="54" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B81" s="45" t="n">
+      <c r="B81" s="46" t="n">
         <f aca="false">B80/2</f>
         <v>101000</v>
       </c>
-      <c r="C81" s="47" t="n">
+      <c r="C81" s="48" t="n">
         <v>10775</v>
       </c>
-      <c r="D81" s="48" t="n">
+      <c r="D81" s="49" t="n">
         <f aca="false">(C81 * 100)/B81</f>
         <v>10.6683168316832</v>
       </c>
-      <c r="G81" s="45" t="n">
+      <c r="G81" s="46" t="n">
         <v>2424000</v>
       </c>
-      <c r="H81" s="45" t="n">
+      <c r="H81" s="46" t="n">
         <v>2473839.9</v>
       </c>
-      <c r="I81" s="54" t="n">
+      <c r="I81" s="55" t="n">
         <f aca="false">(H81 * 100)/G81</f>
         <v>102.056101485149</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B82" s="45" t="n">
+      <c r="B82" s="46" t="n">
         <f aca="false">B80/2</f>
         <v>101000</v>
       </c>
-      <c r="C82" s="47" t="n">
+      <c r="C82" s="48" t="n">
         <v>22005</v>
       </c>
-      <c r="D82" s="51" t="n">
+      <c r="D82" s="52" t="n">
         <f aca="false">(C82 * 100)/B82</f>
         <v>21.7871287128713</v>
       </c>
@@ -14160,7 +14170,7 @@
   </sheetPr>
   <dimension ref="C1:P7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O13" activeCellId="0" sqref="O13"/>
     </sheetView>
   </sheetViews>
@@ -14208,43 +14218,43 @@
       <c r="P2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="19" t="s">
+      <c r="C3" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="55" t="s">
+      <c r="K3" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="55" t="s">
+      <c r="L3" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="55" t="s">
+      <c r="O3" s="56" t="s">
         <v>22</v>
       </c>
       <c r="P3" s="1" t="s">
@@ -14252,115 +14262,115 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="56" t="n">
+      <c r="C4" s="57" t="n">
         <v>42388</v>
       </c>
-      <c r="D4" s="56" t="n">
+      <c r="D4" s="57" t="n">
         <v>42388</v>
       </c>
-      <c r="E4" s="56" t="n">
+      <c r="E4" s="57" t="n">
         <v>42388</v>
       </c>
-      <c r="F4" s="56" t="n">
+      <c r="F4" s="57" t="n">
         <v>42388</v>
       </c>
-      <c r="G4" s="56" t="n">
+      <c r="G4" s="57" t="n">
         <v>42388</v>
       </c>
-      <c r="H4" s="56" t="n">
+      <c r="H4" s="57" t="n">
         <v>42388</v>
       </c>
-      <c r="I4" s="56" t="n">
+      <c r="I4" s="57" t="n">
         <v>42388</v>
       </c>
-      <c r="J4" s="56" t="n">
+      <c r="J4" s="57" t="n">
         <v>42388</v>
       </c>
-      <c r="K4" s="56" t="n">
+      <c r="K4" s="57" t="n">
         <v>42388</v>
       </c>
-      <c r="L4" s="56" t="n">
+      <c r="L4" s="57" t="n">
         <v>42388</v>
       </c>
-      <c r="M4" s="56" t="n">
+      <c r="M4" s="57" t="n">
         <v>42388</v>
       </c>
-      <c r="N4" s="56" t="n">
+      <c r="N4" s="57" t="n">
         <v>42388</v>
       </c>
-      <c r="O4" s="56" t="n">
+      <c r="O4" s="57" t="n">
         <v>42388</v>
       </c>
       <c r="P4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="29" t="n">
+      <c r="C5" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="30" t="n">
         <v>0.97</v>
       </c>
-      <c r="F5" s="29" t="n">
+      <c r="F5" s="30" t="n">
         <v>0.97</v>
       </c>
-      <c r="G5" s="29" t="n">
+      <c r="G5" s="30" t="n">
         <v>0.97</v>
       </c>
-      <c r="H5" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29" t="s">
+      <c r="H5" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" s="29"/>
-      <c r="P5" s="26" t="n">
+      <c r="N5" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="30"/>
+      <c r="P5" s="27" t="n">
         <f aca="false">AVERAGE(C5:O5)</f>
         <v>0.99</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:L4">
